--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -575,7 +575,7 @@
         <v>46033.93310185185</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>44796</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,14 +782,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 19847-2021</t>
+          <t>A 1480-2026</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44313</v>
+        <v>46033.93108796296</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -802,39 +802,141 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>14.9</v>
+        <v>1.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>8</v>
       </c>
       <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>14</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Ulltickeporing
+Brunpudrad nållav
+Gammelgransskål
+Gränsticka
+Kortskaftad ärgspik
+Leptoporus mollis
+Skrovellav
+Tretåig hackspett
+Ullticka
+Bronshjon
+Bårdlav
+Gulnål
+Stuplav
+Vedticka</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2023/artfynd/A 1480-2026 artfynd.xlsx", "A 1480-2026")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2023/kartor/A 1480-2026 karta.png", "A 1480-2026")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2023/klagomål/A 1480-2026 FSC-klagomål.docx", "A 1480-2026")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2023/klagomålsmail/A 1480-2026 FSC-klagomål mail.docx", "A 1480-2026")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2023/tillsyn/A 1480-2026 tillsynsbegäran.docx", "A 1480-2026")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2023/tillsynsmail/A 1480-2026 tillsynsbegäran mail.docx", "A 1480-2026")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_2023/fåglar/A 1480-2026 prioriterade fågelarter.docx", "A 1480-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 19847-2021</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>44313</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>MALUNG-SÄLEN</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="n">
         <v>2</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>10</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>13</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Skuggnål
 Tallbit
@@ -851,96 +953,96 @@
 Trådticka</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2023/artfynd/A 19847-2021 artfynd.xlsx", "A 19847-2021")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2023/kartor/A 19847-2021 karta.png", "A 19847-2021")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2023/klagomål/A 19847-2021 FSC-klagomål.docx", "A 19847-2021")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2023/klagomålsmail/A 19847-2021 FSC-klagomål mail.docx", "A 19847-2021")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2023/tillsyn/A 19847-2021 tillsynsbegäran.docx", "A 19847-2021")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2023/tillsynsmail/A 19847-2021 tillsynsbegäran mail.docx", "A 19847-2021")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_2023/fåglar/A 19847-2021 prioriterade fågelarter.docx", "A 19847-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
         <is>
           <t>A 22112-2025</t>
         </is>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6" s="1" t="n">
         <v>45785</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>MALUNG-SÄLEN</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="C6" s="1" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MALUNG-SÄLEN</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Allmännings- och besparingsskogar</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G6" t="n">
         <v>53.9</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H6" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I6" t="n">
         <v>3</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>9</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>9</v>
       </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>13</v>
       </c>
-      <c r="R5" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Blågrå svartspik
 Dvärgbägarlav
@@ -957,136 +1059,35 @@
 Tjäder</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2023/artfynd/A 22112-2025 artfynd.xlsx", "A 22112-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2023/kartor/A 22112-2025 karta.png", "A 22112-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2023/klagomål/A 22112-2025 FSC-klagomål.docx", "A 22112-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2023/klagomålsmail/A 22112-2025 FSC-klagomål mail.docx", "A 22112-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2023/tillsyn/A 22112-2025 tillsynsbegäran.docx", "A 22112-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2023/tillsynsmail/A 22112-2025 tillsynsbegäran mail.docx", "A 22112-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_2023/fåglar/A 22112-2025 prioriterade fågelarter.docx", "A 22112-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 1480-2026</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>46033.93108796296</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46061</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>DALARNAS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MALUNG-SÄLEN</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>9</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>13</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Ulltickeporing
-Brunpudrad nållav
-Gammelgransskål
-Gränsticka
-Kortskaftad ärgspik
-Leptoporus mollis
-Skrovellav
-Tretåig hackspett
-Ullticka
-Bårdlav
-Gulnål
-Stuplav
-Vedticka</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2023/artfynd/A 1480-2026 artfynd.xlsx", "A 1480-2026")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2023/kartor/A 1480-2026 karta.png", "A 1480-2026")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2023/klagomål/A 1480-2026 FSC-klagomål.docx", "A 1480-2026")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2023/klagomålsmail/A 1480-2026 FSC-klagomål mail.docx", "A 1480-2026")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2023/tillsyn/A 1480-2026 tillsynsbegäran.docx", "A 1480-2026")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2023/tillsynsmail/A 1480-2026 tillsynsbegäran mail.docx", "A 1480-2026")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_2023/fåglar/A 1480-2026 prioriterade fågelarter.docx", "A 1480-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1097,7 +1098,7 @@
         <v>45775</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1194,7 +1195,7 @@
         <v>45917</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1295,7 +1296,7 @@
         <v>46057.59621527778</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1400,7 +1401,7 @@
         <v>45820</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1499,7 +1500,7 @@
         <v>45469</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1594,7 +1595,7 @@
         <v>44311</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1688,7 +1689,7 @@
         <v>45982.53770833334</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1786,7 +1787,7 @@
         <v>44637</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1880,7 +1881,7 @@
         <v>45903.56965277778</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1982,7 +1983,7 @@
         <v>45932</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2079,7 +2080,7 @@
         <v>44610.4637962963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2170,7 +2171,7 @@
         <v>45946.39505787037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2265,7 +2266,7 @@
         <v>45695</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2356,7 +2357,7 @@
         <v>45982.5450462963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2451,7 +2452,7 @@
         <v>45622</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2547,7 +2548,7 @@
         <v>45897.33015046296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2641,7 +2642,7 @@
         <v>45775</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2731,7 +2732,7 @@
         <v>46055.38225694445</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2825,7 +2826,7 @@
         <v>45099</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2914,7 +2915,7 @@
         <v>45533</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3003,7 +3004,7 @@
         <v>46029.45614583333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3097,7 +3098,7 @@
         <v>46033.93405092593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3190,7 +3191,7 @@
         <v>44363</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3278,7 +3279,7 @@
         <v>45583</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3366,7 +3367,7 @@
         <v>44742</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3458,7 +3459,7 @@
         <v>45754.58225694444</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3545,7 +3546,7 @@
         <v>45903.76780092593</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3632,7 +3633,7 @@
         <v>45236</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3723,7 +3724,7 @@
         <v>45826.70199074074</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3815,7 +3816,7 @@
         <v>44796</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3902,7 +3903,7 @@
         <v>45713</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3989,7 +3990,7 @@
         <v>44741</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4080,7 +4081,7 @@
         <v>45831.38329861111</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4171,7 +4172,7 @@
         <v>45925.4802199074</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4257,7 +4258,7 @@
         <v>45589.67122685185</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4348,7 +4349,7 @@
         <v>45999.69931712963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4439,7 +4440,7 @@
         <v>44319</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4525,7 +4526,7 @@
         <v>45714.47484953704</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4615,7 +4616,7 @@
         <v>44641</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4701,7 +4702,7 @@
         <v>45793.44649305556</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4792,7 +4793,7 @@
         <v>44442</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4881,7 +4882,7 @@
         <v>44631</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4966,7 +4967,7 @@
         <v>44427</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5051,7 +5052,7 @@
         <v>44464</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5136,7 +5137,7 @@
         <v>44721</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5226,7 +5227,7 @@
         <v>45799.58873842593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5311,7 +5312,7 @@
         <v>45623.59393518518</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5396,7 +5397,7 @@
         <v>45805.5721412037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5486,7 +5487,7 @@
         <v>45895.48694444444</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5580,7 +5581,7 @@
         <v>45824.56101851852</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5666,7 @@
         <v>45831.57118055555</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5755,7 +5756,7 @@
         <v>45119.57550925926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5849,7 +5850,7 @@
         <v>45246</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5934,7 +5935,7 @@
         <v>46029.77950231481</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6028,7 +6029,7 @@
         <v>45713</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6113,7 +6114,7 @@
         <v>44319</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6198,7 +6199,7 @@
         <v>44313.37334490741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6255,7 +6256,7 @@
         <v>44375.67070601852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6312,7 +6313,7 @@
         <v>44512</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6374,7 +6375,7 @@
         <v>44390.661875</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6431,7 +6432,7 @@
         <v>44489.67596064815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6488,7 +6489,7 @@
         <v>44508</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6545,7 +6546,7 @@
         <v>44537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6602,7 +6603,7 @@
         <v>44325</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6659,7 +6660,7 @@
         <v>44363</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6716,7 +6717,7 @@
         <v>44511</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6773,7 +6774,7 @@
         <v>44419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6830,7 +6831,7 @@
         <v>44712.814375</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6892,7 +6893,7 @@
         <v>44852.32462962963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6954,7 +6955,7 @@
         <v>44355</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7016,7 +7017,7 @@
         <v>44435</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7073,7 +7074,7 @@
         <v>44326</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7130,7 +7131,7 @@
         <v>44733.64910879629</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7187,7 +7188,7 @@
         <v>44811</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7249,7 +7250,7 @@
         <v>44704.52496527778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7306,7 +7307,7 @@
         <v>44756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7363,7 +7364,7 @@
         <v>44271.6396875</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7425,7 +7426,7 @@
         <v>44351</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7487,7 +7488,7 @@
         <v>44887.40295138889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7549,7 +7550,7 @@
         <v>44696</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7606,7 +7607,7 @@
         <v>44447.60320601852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7663,7 +7664,7 @@
         <v>44616</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7720,7 +7721,7 @@
         <v>44503</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7777,7 +7778,7 @@
         <v>44319.61162037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7834,7 +7835,7 @@
         <v>44588.37287037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7891,7 +7892,7 @@
         <v>44809.42033564814</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7948,7 +7949,7 @@
         <v>44602.44553240741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8005,7 +8006,7 @@
         <v>44533.48498842592</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8062,7 +8063,7 @@
         <v>44529.39631944444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8119,7 +8120,7 @@
         <v>44462</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8176,7 +8177,7 @@
         <v>44328.42916666667</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8233,7 +8234,7 @@
         <v>44501</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8295,7 +8296,7 @@
         <v>44354.39466435185</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8352,7 +8353,7 @@
         <v>44613</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8409,7 +8410,7 @@
         <v>44342</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8466,7 +8467,7 @@
         <v>44379</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8523,7 +8524,7 @@
         <v>44375</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8580,7 +8581,7 @@
         <v>44540</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8642,7 +8643,7 @@
         <v>44701.41467592592</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8699,7 +8700,7 @@
         <v>44445</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8761,7 +8762,7 @@
         <v>44469</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8818,7 +8819,7 @@
         <v>44810</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8880,7 +8881,7 @@
         <v>44363</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8937,7 +8938,7 @@
         <v>44351</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8994,7 +8995,7 @@
         <v>44447.5934837963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9051,7 +9052,7 @@
         <v>44351.34210648148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9113,7 +9114,7 @@
         <v>44721.45182870371</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9170,7 +9171,7 @@
         <v>44515</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9232,7 +9233,7 @@
         <v>44557.62385416667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9289,7 +9290,7 @@
         <v>44547.43075231482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9346,7 +9347,7 @@
         <v>44802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9403,7 +9404,7 @@
         <v>44433</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9465,7 +9466,7 @@
         <v>44853</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9522,7 +9523,7 @@
         <v>44886.44950231481</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9579,7 +9580,7 @@
         <v>44512</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9636,7 +9637,7 @@
         <v>44739</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9693,7 +9694,7 @@
         <v>44721</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9755,7 +9756,7 @@
         <v>44743</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9817,7 +9818,7 @@
         <v>44743.62524305555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9879,7 +9880,7 @@
         <v>44348.55862268519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9941,7 +9942,7 @@
         <v>44616</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9998,7 +9999,7 @@
         <v>44811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10055,7 +10056,7 @@
         <v>44797.62701388889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10117,7 +10118,7 @@
         <v>44839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10174,7 +10175,7 @@
         <v>44839</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10231,7 +10232,7 @@
         <v>44544.62434027778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10288,7 +10289,7 @@
         <v>44749.54681712963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10350,7 +10351,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10407,7 +10408,7 @@
         <v>44277</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10464,7 +10465,7 @@
         <v>44326.41503472222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10521,7 +10522,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10583,7 +10584,7 @@
         <v>44312</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10640,7 +10641,7 @@
         <v>44600.60770833334</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10697,7 +10698,7 @@
         <v>44826</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10759,7 +10760,7 @@
         <v>44603.5813425926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10816,7 +10817,7 @@
         <v>44743.61864583333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10878,7 +10879,7 @@
         <v>44811.59392361111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10940,7 +10941,7 @@
         <v>44811</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11002,7 +11003,7 @@
         <v>45078.62092592593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11064,7 +11065,7 @@
         <v>45632.64725694444</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11121,7 +11122,7 @@
         <v>45645.67467592593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11178,7 +11179,7 @@
         <v>45674.473125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11235,7 +11236,7 @@
         <v>44356.49241898148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11292,7 +11293,7 @@
         <v>44978</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11349,7 +11350,7 @@
         <v>45569.56986111111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11411,7 +11412,7 @@
         <v>45007</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11468,7 +11469,7 @@
         <v>44867</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11525,7 +11526,7 @@
         <v>45510.47663194445</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11582,7 +11583,7 @@
         <v>44897.58142361111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11639,7 +11640,7 @@
         <v>45244.32862268519</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11696,7 +11697,7 @@
         <v>45583.66347222222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11758,7 +11759,7 @@
         <v>45519.51989583333</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11815,7 +11816,7 @@
         <v>44900</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11877,7 +11878,7 @@
         <v>44937</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11934,7 +11935,7 @@
         <v>45713.6208912037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11991,7 +11992,7 @@
         <v>44349.32005787037</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12048,7 +12049,7 @@
         <v>45684.63780092593</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12105,7 +12106,7 @@
         <v>44515</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12167,7 +12168,7 @@
         <v>45775.59604166666</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12229,7 +12230,7 @@
         <v>45225.29825231482</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12286,7 +12287,7 @@
         <v>45769.56340277778</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12343,7 +12344,7 @@
         <v>45762.47291666667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12400,7 +12401,7 @@
         <v>44894.48662037037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12462,7 +12463,7 @@
         <v>45252.9509837963</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12519,7 +12520,7 @@
         <v>45191</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12576,7 +12577,7 @@
         <v>44599</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12633,7 +12634,7 @@
         <v>44350</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12690,7 +12691,7 @@
         <v>45510.63341435185</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12752,7 +12753,7 @@
         <v>45621.57976851852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12814,7 +12815,7 @@
         <v>45093.44674768519</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12871,7 +12872,7 @@
         <v>45636.43981481482</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12928,7 +12929,7 @@
         <v>45644.4359375</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12985,7 +12986,7 @@
         <v>45237.58881944444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13042,7 +13043,7 @@
         <v>44832.32884259259</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13099,7 +13100,7 @@
         <v>45224.64626157407</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13161,7 +13162,7 @@
         <v>45510.63439814815</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13223,7 +13224,7 @@
         <v>45225.32844907408</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13280,7 +13281,7 @@
         <v>45245</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13337,7 +13338,7 @@
         <v>45747.36768518519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13394,7 +13395,7 @@
         <v>45162.61471064815</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13456,7 +13457,7 @@
         <v>45677.43952546296</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13513,7 +13514,7 @@
         <v>45677.45149305555</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13570,7 +13571,7 @@
         <v>45566.56403935186</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13627,7 +13628,7 @@
         <v>45559.65381944444</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13684,7 +13685,7 @@
         <v>45226.57532407407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13741,7 +13742,7 @@
         <v>44267.48237268518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13798,7 +13799,7 @@
         <v>44267</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13855,7 +13856,7 @@
         <v>45089</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13912,7 +13913,7 @@
         <v>45453.59372685185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13969,7 +13970,7 @@
         <v>45629.8154050926</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14026,7 +14027,7 @@
         <v>45659.57883101852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14083,7 +14084,7 @@
         <v>44910.46317129629</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14140,7 +14141,7 @@
         <v>45727</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14197,7 +14198,7 @@
         <v>45592.73224537037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14254,7 +14255,7 @@
         <v>45761.44954861111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14316,7 +14317,7 @@
         <v>44928</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14373,7 +14374,7 @@
         <v>45071</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14435,7 +14436,7 @@
         <v>44896.46638888889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14492,7 +14493,7 @@
         <v>45202</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14549,7 +14550,7 @@
         <v>45485.44567129629</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14611,7 +14612,7 @@
         <v>44903</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14668,7 +14669,7 @@
         <v>44739</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14725,7 +14726,7 @@
         <v>44741.50043981482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14787,7 +14788,7 @@
         <v>45604.40155092593</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14844,7 +14845,7 @@
         <v>45191</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14901,7 +14902,7 @@
         <v>45152</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14963,7 +14964,7 @@
         <v>45659.31378472222</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15020,7 +15021,7 @@
         <v>44946</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15077,7 +15078,7 @@
         <v>45798.58796296296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15134,7 +15135,7 @@
         <v>44445.55202546297</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15191,7 +15192,7 @@
         <v>45231</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15248,7 +15249,7 @@
         <v>45799.58537037037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15305,7 +15306,7 @@
         <v>45628.66434027778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15362,7 +15363,7 @@
         <v>44903.47903935185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15419,7 +15420,7 @@
         <v>45673.44138888889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15476,7 +15477,7 @@
         <v>45204.59157407407</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15538,7 +15539,7 @@
         <v>45721.63273148148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15595,7 +15596,7 @@
         <v>45705.66449074074</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15652,7 +15653,7 @@
         <v>44931.36048611111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15709,7 +15710,7 @@
         <v>44938.47299768519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15766,7 +15767,7 @@
         <v>45800.41166666667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15828,7 +15829,7 @@
         <v>45800.41847222222</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15890,7 +15891,7 @@
         <v>45530.58905092593</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15947,7 +15948,7 @@
         <v>45804.33391203704</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16004,7 +16005,7 @@
         <v>45804.33924768519</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16061,7 +16062,7 @@
         <v>45804.35850694445</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16118,7 +16119,7 @@
         <v>45804.34329861111</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16175,7 +16176,7 @@
         <v>45804.47033564815</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16237,7 +16238,7 @@
         <v>45805.47784722222</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16299,7 +16300,7 @@
         <v>45804.34152777777</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16356,7 +16357,7 @@
         <v>45747</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16418,7 +16419,7 @@
         <v>45805.41782407407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16480,7 +16481,7 @@
         <v>45804.5756712963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16542,7 +16543,7 @@
         <v>45162.60524305556</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16599,7 +16600,7 @@
         <v>45804.63151620371</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16656,7 +16657,7 @@
         <v>45804.53506944444</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16713,7 +16714,7 @@
         <v>45805.42608796297</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16775,7 +16776,7 @@
         <v>45804.57848379629</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16832,7 +16833,7 @@
         <v>44804.47018518519</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16889,7 +16890,7 @@
         <v>45747</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16946,7 +16947,7 @@
         <v>45804.44298611111</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17008,7 +17009,7 @@
         <v>45805.56788194444</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17070,7 +17071,7 @@
         <v>45807</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17127,7 +17128,7 @@
         <v>45807.43049768519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17184,7 +17185,7 @@
         <v>45807.42395833333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17241,7 +17242,7 @@
         <v>45817.64203703704</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17303,7 +17304,7 @@
         <v>45461.64259259259</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17360,7 +17361,7 @@
         <v>45461.64377314815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17417,7 +17418,7 @@
         <v>45810.67299768519</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17474,7 +17475,7 @@
         <v>45540.42568287037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17536,7 +17537,7 @@
         <v>45646.30297453704</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17593,7 +17594,7 @@
         <v>45072</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17655,7 +17656,7 @@
         <v>45322.35017361111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17712,7 +17713,7 @@
         <v>45443.481875</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17774,7 +17775,7 @@
         <v>45890.46034722222</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17836,7 +17837,7 @@
         <v>45890.48954861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17898,7 +17899,7 @@
         <v>45891.74215277778</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17960,7 +17961,7 @@
         <v>45891.74527777778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18022,7 +18023,7 @@
         <v>45891.45103009259</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18084,7 +18085,7 @@
         <v>45891.75015046296</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18146,7 +18147,7 @@
         <v>45890.48315972222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18208,7 +18209,7 @@
         <v>45890.49148148148</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18270,7 +18271,7 @@
         <v>45890.5018287037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18327,7 +18328,7 @@
         <v>45891.44253472222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18389,7 +18390,7 @@
         <v>45891.74743055556</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18451,7 +18452,7 @@
         <v>45238</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18508,7 +18509,7 @@
         <v>45762.36094907407</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18565,7 +18566,7 @@
         <v>44897</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18622,7 +18623,7 @@
         <v>45892.99412037037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18679,7 +18680,7 @@
         <v>45895.32311342593</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18736,7 +18737,7 @@
         <v>45037.60547453703</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18793,7 +18794,7 @@
         <v>45894.6009375</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18855,7 +18856,7 @@
         <v>45428.64856481482</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18912,7 +18913,7 @@
         <v>44462</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18969,7 +18970,7 @@
         <v>45895</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19031,7 +19032,7 @@
         <v>45541.58900462963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19093,7 +19094,7 @@
         <v>44677.59837962963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19155,7 +19156,7 @@
         <v>45817.71776620371</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19217,7 +19218,7 @@
         <v>45219</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19274,7 +19275,7 @@
         <v>45477.46177083333</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19331,7 +19332,7 @@
         <v>45670</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19388,7 +19389,7 @@
         <v>45898.5934375</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19450,7 +19451,7 @@
         <v>45740.43369212963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19507,7 +19508,7 @@
         <v>45898.60506944444</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19564,7 +19565,7 @@
         <v>45818.56835648148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19626,7 +19627,7 @@
         <v>45775.63165509259</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19683,7 +19684,7 @@
         <v>45121.52883101852</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19745,7 +19746,7 @@
         <v>45818.34246527778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19802,7 +19803,7 @@
         <v>45749.60295138889</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19859,7 +19860,7 @@
         <v>45540.46436342593</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19921,7 +19922,7 @@
         <v>45615.64232638889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19978,7 +19979,7 @@
         <v>45762.33412037037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20035,7 +20036,7 @@
         <v>45818</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20092,7 +20093,7 @@
         <v>44886.43664351852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20149,7 +20150,7 @@
         <v>44881</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20206,7 +20207,7 @@
         <v>45818.41689814815</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20263,7 +20264,7 @@
         <v>45818.42233796296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20320,7 +20321,7 @@
         <v>45901.34545138889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20377,7 +20378,7 @@
         <v>45749</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20434,7 +20435,7 @@
         <v>45902.61282407407</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20496,7 +20497,7 @@
         <v>45820.59396990741</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20553,7 +20554,7 @@
         <v>45820.57655092593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20610,7 +20611,7 @@
         <v>45821.56467592593</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20672,7 +20673,7 @@
         <v>45820.41873842593</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20734,7 +20735,7 @@
         <v>45902.45212962963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20796,7 +20797,7 @@
         <v>45056</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20853,7 +20854,7 @@
         <v>45821.4656712963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20915,7 +20916,7 @@
         <v>45677.44365740741</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20972,7 +20973,7 @@
         <v>45902.65636574074</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21034,7 +21035,7 @@
         <v>45902.44011574074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21091,7 +21092,7 @@
         <v>45821.45039351852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21153,7 +21154,7 @@
         <v>45902.47207175926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21210,7 +21211,7 @@
         <v>45821.44921296297</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21272,7 +21273,7 @@
         <v>44440</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21334,7 +21335,7 @@
         <v>45672.38461805556</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21391,7 +21392,7 @@
         <v>45904.4828125</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21448,7 +21449,7 @@
         <v>44319.62157407407</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21505,7 +21506,7 @@
         <v>45905.55238425926</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21562,7 +21563,7 @@
         <v>45229.35541666667</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21624,7 +21625,7 @@
         <v>45036.58005787037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21681,7 +21682,7 @@
         <v>45904.35834490741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21738,7 +21739,7 @@
         <v>45904.36177083333</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21795,7 +21796,7 @@
         <v>45905.56336805555</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21852,7 +21853,7 @@
         <v>45824.61040509259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21909,7 +21910,7 @@
         <v>45875</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21966,7 +21967,7 @@
         <v>45824.39042824074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22028,7 +22029,7 @@
         <v>45908.58384259259</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22090,7 +22091,7 @@
         <v>45824.38527777778</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22152,7 +22153,7 @@
         <v>45824.56637731481</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22209,7 +22210,7 @@
         <v>45909.45203703704</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22271,7 +22272,7 @@
         <v>45481.64619212963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22333,7 +22334,7 @@
         <v>45541.5880787037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22395,7 +22396,7 @@
         <v>45204.59987268518</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22457,7 +22458,7 @@
         <v>45204.61577546296</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22519,7 +22520,7 @@
         <v>45642.34791666667</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22576,7 +22577,7 @@
         <v>45642.4716087963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22633,7 +22634,7 @@
         <v>45910.55662037037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22695,7 +22696,7 @@
         <v>45910.54856481482</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22757,7 +22758,7 @@
         <v>45824.56353009259</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22814,7 +22815,7 @@
         <v>45824.56792824074</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22871,7 +22872,7 @@
         <v>45824.64315972223</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22933,7 +22934,7 @@
         <v>44860</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22990,7 +22991,7 @@
         <v>45634.87394675926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23047,7 +23048,7 @@
         <v>45910.54983796296</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23109,7 +23110,7 @@
         <v>45911.65578703704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23166,7 +23167,7 @@
         <v>45915.5579050926</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23228,7 +23229,7 @@
         <v>45915.62581018519</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23285,7 +23286,7 @@
         <v>45826.46914351852</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23342,7 +23343,7 @@
         <v>45827.34490740741</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23399,7 +23400,7 @@
         <v>45912.39274305556</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23461,7 +23462,7 @@
         <v>45826.41086805556</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23523,7 +23524,7 @@
         <v>45915</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23585,7 +23586,7 @@
         <v>45912.64012731481</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23642,7 +23643,7 @@
         <v>45714</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23699,7 +23700,7 @@
         <v>45917.57190972222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23761,7 +23762,7 @@
         <v>45916.40692129629</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23818,7 +23819,7 @@
         <v>45203.31983796296</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23875,7 +23876,7 @@
         <v>45692.58461805555</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23932,7 +23933,7 @@
         <v>45916.3175</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23989,7 +23990,7 @@
         <v>45916.40025462963</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24046,7 +24047,7 @@
         <v>45831.65703703704</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24108,7 +24109,7 @@
         <v>45831.35322916666</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24165,7 +24166,7 @@
         <v>45541.58518518518</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24227,7 +24228,7 @@
         <v>45534.41496527778</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24284,7 +24285,7 @@
         <v>45919.44981481481</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24346,7 +24347,7 @@
         <v>45831.65957175926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24408,7 +24409,7 @@
         <v>45918.46780092592</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24470,7 +24471,7 @@
         <v>45831.66356481481</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24532,7 +24533,7 @@
         <v>45919.56688657407</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24589,7 +24590,7 @@
         <v>45831.40608796296</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24646,7 +24647,7 @@
         <v>45831.47927083333</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24708,7 +24709,7 @@
         <v>45919.59399305555</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24765,7 +24766,7 @@
         <v>45833</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24827,7 +24828,7 @@
         <v>45713</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24884,7 +24885,7 @@
         <v>45919.5646412037</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24941,7 +24942,7 @@
         <v>45763.58377314815</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25003,7 +25004,7 @@
         <v>45922.498125</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25060,7 +25061,7 @@
         <v>45198</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25122,7 +25123,7 @@
         <v>45608</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25179,7 +25180,7 @@
         <v>45757</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25236,7 +25237,7 @@
         <v>45832.37792824074</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25298,7 +25299,7 @@
         <v>45833</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25360,7 +25361,7 @@
         <v>45832.57787037037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25422,7 +25423,7 @@
         <v>45925.6866087963</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25479,7 +25480,7 @@
         <v>45832.38466435186</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25541,7 +25542,7 @@
         <v>45925.70153935185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25603,7 +25604,7 @@
         <v>45925.68283564815</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25660,7 +25661,7 @@
         <v>45924.39965277778</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25722,7 +25723,7 @@
         <v>45525.44471064815</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25784,7 +25785,7 @@
         <v>45835.53376157407</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25841,7 +25842,7 @@
         <v>45257.64123842592</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25898,7 +25899,7 @@
         <v>45257</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25960,7 +25961,7 @@
         <v>45926.4656712963</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26017,7 +26018,7 @@
         <v>45926.32371527778</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26079,7 +26080,7 @@
         <v>45575.65107638889</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26136,7 +26137,7 @@
         <v>45929.59138888889</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26193,7 +26194,7 @@
         <v>45713</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26250,7 +26251,7 @@
         <v>44911.36712962963</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26307,7 +26308,7 @@
         <v>45835.48920138889</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26364,7 +26365,7 @@
         <v>45929.62607638889</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26421,7 +26422,7 @@
         <v>45622.61188657407</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26483,7 +26484,7 @@
         <v>45835</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26540,7 +26541,7 @@
         <v>45614.35696759259</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26597,7 +26598,7 @@
         <v>45007.58724537037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26654,7 +26655,7 @@
         <v>45665.31773148148</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26711,7 +26712,7 @@
         <v>45665.31870370371</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26768,7 +26769,7 @@
         <v>45834</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26825,7 +26826,7 @@
         <v>45243.41099537037</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26882,7 +26883,7 @@
         <v>45835.37701388889</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26939,7 +26940,7 @@
         <v>45930.48217592593</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27001,7 +27002,7 @@
         <v>45930.6686574074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27058,7 +27059,7 @@
         <v>45931.64465277778</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27115,7 +27116,7 @@
         <v>45839.67778935185</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27177,7 +27178,7 @@
         <v>45931.57971064815</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27239,7 +27240,7 @@
         <v>45488.5965625</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27301,7 +27302,7 @@
         <v>45547.6940625</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27358,7 +27359,7 @@
         <v>45931.66475694445</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27415,7 +27416,7 @@
         <v>45838</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27472,7 +27473,7 @@
         <v>45237</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27529,7 +27530,7 @@
         <v>45237</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27586,7 +27587,7 @@
         <v>45712.54076388889</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27643,7 +27644,7 @@
         <v>45839.34805555556</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27700,7 +27701,7 @@
         <v>45153.35951388889</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27757,7 +27758,7 @@
         <v>45839.67460648148</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27819,7 +27820,7 @@
         <v>45839.68015046296</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27881,7 +27882,7 @@
         <v>45838</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27943,7 +27944,7 @@
         <v>45933.61208333333</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28005,7 +28006,7 @@
         <v>45933.6137962963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28067,7 +28068,7 @@
         <v>45932.41336805555</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28129,7 +28130,7 @@
         <v>45933.6071875</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28191,7 +28192,7 @@
         <v>45839</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28248,7 +28249,7 @@
         <v>45749.58858796296</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28305,7 +28306,7 @@
         <v>45933.66008101852</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28362,7 +28363,7 @@
         <v>45932.59075231481</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28424,7 +28425,7 @@
         <v>45932.62795138889</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28481,7 +28482,7 @@
         <v>45840.59939814815</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28538,7 +28539,7 @@
         <v>45728.43846064815</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28595,7 +28596,7 @@
         <v>45936.55692129629</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28652,7 +28653,7 @@
         <v>45936.58496527778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28709,7 +28710,7 @@
         <v>45936.54474537037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28766,7 +28767,7 @@
         <v>45936</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28823,7 +28824,7 @@
         <v>45936.50738425926</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28885,7 +28886,7 @@
         <v>45714.47013888889</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28942,7 +28943,7 @@
         <v>45841</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28999,7 +29000,7 @@
         <v>45840.46732638889</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29061,7 +29062,7 @@
         <v>45841</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29118,7 +29119,7 @@
         <v>45841.67270833333</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29180,7 +29181,7 @@
         <v>45936.61449074074</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29237,7 +29238,7 @@
         <v>45937.39556712963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29299,7 +29300,7 @@
         <v>45937.40653935185</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29361,7 +29362,7 @@
         <v>44637</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29423,7 +29424,7 @@
         <v>45841</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29485,7 +29486,7 @@
         <v>45841.65665509259</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29547,7 +29548,7 @@
         <v>45841.67546296296</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29609,7 +29610,7 @@
         <v>45937.30636574074</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29666,7 +29667,7 @@
         <v>45939.62938657407</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29728,7 +29729,7 @@
         <v>45938.47748842592</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29790,7 +29791,7 @@
         <v>45841.66240740741</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29852,7 +29853,7 @@
         <v>45937.5359375</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29914,7 +29915,7 @@
         <v>45842.56287037037</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29971,7 +29972,7 @@
         <v>45470.5739699074</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30033,7 +30034,7 @@
         <v>45845</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30095,7 +30096,7 @@
         <v>45937.64236111111</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30152,7 +30153,7 @@
         <v>45642.47443287037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30209,7 +30210,7 @@
         <v>45937.48424768518</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30271,7 +30272,7 @@
         <v>45211</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30328,7 +30329,7 @@
         <v>45940.55105324074</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30390,7 +30391,7 @@
         <v>45940.40857638889</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30447,7 +30448,7 @@
         <v>45943</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30509,7 +30510,7 @@
         <v>45940.34780092593</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30571,7 +30572,7 @@
         <v>45188</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30628,7 +30629,7 @@
         <v>45940.53694444444</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30690,7 +30691,7 @@
         <v>45357.34954861111</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30747,7 +30748,7 @@
         <v>45405</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30809,7 +30810,7 @@
         <v>45930</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30866,7 +30867,7 @@
         <v>45845.71</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30928,7 +30929,7 @@
         <v>44994.37497685185</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30985,7 +30986,7 @@
         <v>45940.40210648148</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31042,7 +31043,7 @@
         <v>45252.59219907408</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31099,7 +31100,7 @@
         <v>45940.53023148148</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31161,7 +31162,7 @@
         <v>45940.54184027778</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31223,7 +31224,7 @@
         <v>45845.70777777778</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31285,7 +31286,7 @@
         <v>45846.54021990741</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31342,7 +31343,7 @@
         <v>44235</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31399,7 +31400,7 @@
         <v>45849.4940162037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31461,7 +31462,7 @@
         <v>45947.34503472222</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31518,7 +31519,7 @@
         <v>45849.42806712963</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31580,7 +31581,7 @@
         <v>45931</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31642,7 +31643,7 @@
         <v>45849.52040509259</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31699,7 +31700,7 @@
         <v>45849.50694444445</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31756,7 +31757,7 @@
         <v>45849.49554398148</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31813,7 +31814,7 @@
         <v>45491.37751157407</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31875,7 +31876,7 @@
         <v>45852.64193287037</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31937,7 +31938,7 @@
         <v>45950.33710648148</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31994,7 +31995,7 @@
         <v>45852.62385416667</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32056,7 +32057,7 @@
         <v>45852.51752314815</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32118,7 +32119,7 @@
         <v>45853.61689814815</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32180,7 +32181,7 @@
         <v>45345</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32237,7 +32238,7 @@
         <v>45951.37347222222</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32294,7 +32295,7 @@
         <v>45855.57219907407</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32356,7 +32357,7 @@
         <v>44697.46826388889</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32413,7 +32414,7 @@
         <v>45090</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32470,7 +32471,7 @@
         <v>45855.90872685185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32527,7 +32528,7 @@
         <v>45951.37177083334</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32584,7 +32585,7 @@
         <v>45079</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32641,7 +32642,7 @@
         <v>45762.46747685185</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32698,7 +32699,7 @@
         <v>45597.38252314815</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32755,7 +32756,7 @@
         <v>45769.61793981482</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32812,7 +32813,7 @@
         <v>45483</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32869,7 +32870,7 @@
         <v>44881.70018518518</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32926,7 +32927,7 @@
         <v>45078.36881944445</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32983,7 +32984,7 @@
         <v>45953</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33045,7 +33046,7 @@
         <v>45952.33078703703</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33102,7 +33103,7 @@
         <v>45511.60100694445</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33159,7 +33160,7 @@
         <v>45867.61236111111</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33216,7 +33217,7 @@
         <v>45757.85554398148</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33273,7 +33274,7 @@
         <v>45867.49938657408</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33330,7 +33331,7 @@
         <v>45952.34672453703</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33387,7 +33388,7 @@
         <v>44511.67334490741</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33444,7 +33445,7 @@
         <v>45503.61224537037</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33506,7 +33507,7 @@
         <v>45713</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33563,7 +33564,7 @@
         <v>45957.39171296296</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33620,7 +33621,7 @@
         <v>45957.43186342593</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33677,7 +33678,7 @@
         <v>45957.43469907407</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33734,7 +33735,7 @@
         <v>45957</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33796,7 +33797,7 @@
         <v>45957</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33858,7 +33859,7 @@
         <v>45566.32714120371</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33915,7 +33916,7 @@
         <v>45957</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33977,7 +33978,7 @@
         <v>45694.87980324074</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34034,7 +34035,7 @@
         <v>45957</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34096,7 +34097,7 @@
         <v>45957</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34158,7 +34159,7 @@
         <v>45957.44137731481</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34220,7 +34221,7 @@
         <v>45957.37194444444</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34277,7 +34278,7 @@
         <v>45957</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34339,7 +34340,7 @@
         <v>44405</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34401,7 +34402,7 @@
         <v>45874</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34458,7 +34459,7 @@
         <v>45428</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34515,7 +34516,7 @@
         <v>45875</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34572,7 +34573,7 @@
         <v>45792</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34629,7 +34630,7 @@
         <v>45874</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34686,7 +34687,7 @@
         <v>45636</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34743,7 +34744,7 @@
         <v>45875</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34800,7 +34801,7 @@
         <v>44523.67086805555</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34857,7 +34858,7 @@
         <v>45604.42353009259</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34914,7 +34915,7 @@
         <v>45960.46061342592</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34976,7 +34977,7 @@
         <v>45960.47034722222</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35038,7 +35039,7 @@
         <v>45960.47642361111</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35100,7 +35101,7 @@
         <v>45959.42392361111</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35157,7 +35158,7 @@
         <v>45761.66739583333</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35219,7 +35220,7 @@
         <v>45880.47787037037</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35276,7 +35277,7 @@
         <v>45965.42822916667</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35333,7 +35334,7 @@
         <v>45965</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35390,7 +35391,7 @@
         <v>45964.46950231482</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35452,7 +35453,7 @@
         <v>45294.35001157408</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35509,7 +35510,7 @@
         <v>45964.43986111111</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35571,7 +35572,7 @@
         <v>45880.46700231481</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35628,7 +35629,7 @@
         <v>45880.4719212963</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35685,7 +35686,7 @@
         <v>45964.49159722222</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35742,7 +35743,7 @@
         <v>45964</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35799,7 +35800,7 @@
         <v>45624</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35856,7 +35857,7 @@
         <v>45624</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35913,7 +35914,7 @@
         <v>45965.63627314815</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35970,7 +35971,7 @@
         <v>45965.64197916666</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36027,7 +36028,7 @@
         <v>45936.6453125</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36084,7 +36085,7 @@
         <v>44903</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36141,7 +36142,7 @@
         <v>45062.64018518518</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36198,7 +36199,7 @@
         <v>45631.595625</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36255,7 +36256,7 @@
         <v>45967.64751157408</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36312,7 +36313,7 @@
         <v>45967.69521990741</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36369,7 +36370,7 @@
         <v>45883.44527777778</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36426,7 +36427,7 @@
         <v>45965.90274305556</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36488,7 +36489,7 @@
         <v>45762.3755787037</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36545,7 +36546,7 @@
         <v>45965.85527777778</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36607,7 +36608,7 @@
         <v>45971.483125</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36669,7 +36670,7 @@
         <v>45236.58135416666</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36726,7 +36727,7 @@
         <v>45971.55509259259</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36788,7 +36789,7 @@
         <v>44740.59753472222</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36850,7 +36851,7 @@
         <v>45434.47217592593</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36912,7 +36913,7 @@
         <v>45322.36032407408</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36969,7 +36970,7 @@
         <v>45883.57032407408</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37026,7 +37027,7 @@
         <v>45430.59172453704</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37083,7 +37084,7 @@
         <v>45971.47046296296</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37145,7 +37146,7 @@
         <v>45925</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37202,7 +37203,7 @@
         <v>45973.36538194444</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37264,7 +37265,7 @@
         <v>44501</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37326,7 +37327,7 @@
         <v>45971.82702546296</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37383,7 +37384,7 @@
         <v>45555.51069444444</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37445,7 +37446,7 @@
         <v>45972.68134259259</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37502,7 +37503,7 @@
         <v>45972</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37559,7 +37560,7 @@
         <v>44938</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37616,7 +37617,7 @@
         <v>45460.34475694445</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37678,7 +37679,7 @@
         <v>45973.66032407407</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37740,7 +37741,7 @@
         <v>45314.65690972222</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37797,7 +37798,7 @@
         <v>45974.34572916666</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37859,7 +37860,7 @@
         <v>45339</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37916,7 +37917,7 @@
         <v>45541.58631944445</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37978,7 +37979,7 @@
         <v>45974.34721064815</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38040,7 +38041,7 @@
         <v>46021.71892361111</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38102,7 +38103,7 @@
         <v>45643.31895833334</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38159,7 +38160,7 @@
         <v>45301</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38216,7 +38217,7 @@
         <v>45978.56524305556</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38273,7 +38274,7 @@
         <v>45978.57305555556</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38330,7 +38331,7 @@
         <v>45979.40672453704</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38387,7 +38388,7 @@
         <v>45041.45144675926</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38449,7 +38450,7 @@
         <v>45181.37539351852</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38511,7 +38512,7 @@
         <v>45979.47358796297</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38573,7 +38574,7 @@
         <v>45225.46814814815</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38630,7 +38631,7 @@
         <v>44321</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38687,7 +38688,7 @@
         <v>45670</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38744,7 +38745,7 @@
         <v>45980.43390046297</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38801,7 +38802,7 @@
         <v>45981.47236111111</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38858,7 +38859,7 @@
         <v>45574.48221064815</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38920,7 +38921,7 @@
         <v>45980</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38977,7 +38978,7 @@
         <v>44950</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39034,7 +39035,7 @@
         <v>44277.67891203704</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39091,7 +39092,7 @@
         <v>45982.44721064815</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39153,7 +39154,7 @@
         <v>45672.40387731481</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39210,7 +39211,7 @@
         <v>45566</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39267,7 +39268,7 @@
         <v>45567.31128472222</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39324,7 +39325,7 @@
         <v>45982.64049768518</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39381,7 +39382,7 @@
         <v>45665.32039351852</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39438,7 +39439,7 @@
         <v>46024.4020949074</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39495,7 +39496,7 @@
         <v>46024.45844907407</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39552,7 +39553,7 @@
         <v>45548.38673611111</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39609,7 +39610,7 @@
         <v>45673.42950231482</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39666,7 +39667,7 @@
         <v>45634.8659375</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39723,7 +39724,7 @@
         <v>45986.62393518518</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39780,7 +39781,7 @@
         <v>46029.45927083334</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39842,7 +39843,7 @@
         <v>45987.38755787037</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39899,7 +39900,7 @@
         <v>45987</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39956,7 +39957,7 @@
         <v>45538.53628472222</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40013,7 +40014,7 @@
         <v>44936</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40070,7 +40071,7 @@
         <v>45986</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40127,7 +40128,7 @@
         <v>46029.45503472222</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40189,7 +40190,7 @@
         <v>45987</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40246,7 +40247,7 @@
         <v>46031.59383101852</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40303,7 +40304,7 @@
         <v>45106.39289351852</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40360,7 +40361,7 @@
         <v>45989.44923611111</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40422,7 +40423,7 @@
         <v>44881</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40479,7 +40480,7 @@
         <v>45938</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40541,7 +40542,7 @@
         <v>44321</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40598,7 +40599,7 @@
         <v>45580.57578703704</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40655,7 +40656,7 @@
         <v>45989.45113425926</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40717,7 +40718,7 @@
         <v>45608</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40774,7 +40775,7 @@
         <v>45654.49903935185</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40831,7 +40832,7 @@
         <v>46030.42782407408</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40888,7 +40889,7 @@
         <v>45988.41490740741</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40945,7 +40946,7 @@
         <v>46034.58243055556</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41002,7 +41003,7 @@
         <v>46034.60967592592</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41059,7 +41060,7 @@
         <v>45993</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41121,7 +41122,7 @@
         <v>46021</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41178,7 +41179,7 @@
         <v>45197.29984953703</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41235,7 +41236,7 @@
         <v>46034.65012731482</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41292,7 +41293,7 @@
         <v>46035.55181712963</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41354,7 +41355,7 @@
         <v>46031</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41411,7 +41412,7 @@
         <v>44314.6203587963</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41468,7 +41469,7 @@
         <v>45260</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41525,7 +41526,7 @@
         <v>45992.33203703703</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41582,7 +41583,7 @@
         <v>45992.60519675926</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41639,7 +41640,7 @@
         <v>45188.53271990741</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41696,7 +41697,7 @@
         <v>46034.58451388889</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41753,7 +41754,7 @@
         <v>46034.64164351852</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41810,7 +41811,7 @@
         <v>44897.57861111111</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41867,7 +41868,7 @@
         <v>46034.66954861111</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41924,7 +41925,7 @@
         <v>45629.81228009259</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41981,7 +41982,7 @@
         <v>45450</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42038,7 +42039,7 @@
         <v>45993.68112268519</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42095,7 +42096,7 @@
         <v>45560.548125</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42152,7 +42153,7 @@
         <v>45993.37241898148</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42214,7 +42215,7 @@
         <v>45604.41903935185</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42271,7 +42272,7 @@
         <v>46035.67122685185</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42333,7 +42334,7 @@
         <v>46036.57100694445</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42390,7 +42391,7 @@
         <v>46036.4109837963</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42447,7 +42448,7 @@
         <v>46036.39175925926</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42504,7 +42505,7 @@
         <v>45352</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42566,7 +42567,7 @@
         <v>46031</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42623,7 +42624,7 @@
         <v>45223.4309375</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42685,7 +42686,7 @@
         <v>46036.58809027778</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42742,7 +42743,7 @@
         <v>46036.59063657407</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42799,7 +42800,7 @@
         <v>45995.44162037037</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42861,7 +42862,7 @@
         <v>45439.57542824074</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42923,7 +42924,7 @@
         <v>44979</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42980,7 +42981,7 @@
         <v>46029</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43037,7 +43038,7 @@
         <v>45769.57196759259</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43099,7 +43100,7 @@
         <v>46036.57251157407</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43156,7 +43157,7 @@
         <v>46036.3975</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43213,7 +43214,7 @@
         <v>46036.39993055556</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43270,7 +43271,7 @@
         <v>45439</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43332,7 +43333,7 @@
         <v>46031</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43389,7 +43390,7 @@
         <v>45163.47275462963</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43451,7 +43452,7 @@
         <v>45720.54729166667</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43508,7 +43509,7 @@
         <v>45999.64630787037</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43565,7 +43566,7 @@
         <v>45727.40954861111</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43622,7 +43623,7 @@
         <v>45355</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43684,7 +43685,7 @@
         <v>45525.44305555556</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43746,7 +43747,7 @@
         <v>45548.32189814815</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43803,7 +43804,7 @@
         <v>45614</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43860,7 +43861,7 @@
         <v>45646.38563657407</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43917,7 +43918,7 @@
         <v>45999.64569444444</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43974,7 +43975,7 @@
         <v>45757.31954861111</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44031,7 +44032,7 @@
         <v>44508.40581018518</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44088,7 +44089,7 @@
         <v>46001.60390046296</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44150,7 +44151,7 @@
         <v>45539.65193287037</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44212,7 +44213,7 @@
         <v>46043.36582175926</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44274,7 +44275,7 @@
         <v>45187.57836805555</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44331,7 +44332,7 @@
         <v>46000.61453703704</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44388,7 +44389,7 @@
         <v>45407.62357638889</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44445,7 +44446,7 @@
         <v>45336</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44502,7 +44503,7 @@
         <v>45600.58152777778</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44564,7 +44565,7 @@
         <v>45679</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44621,7 +44622,7 @@
         <v>45621</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44683,7 +44684,7 @@
         <v>46001.57108796296</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44740,7 +44741,7 @@
         <v>46044.67987268518</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44797,7 +44798,7 @@
         <v>46003.38805555556</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44859,7 +44860,7 @@
         <v>46003.51332175926</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44916,7 +44917,7 @@
         <v>45510.59875</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44978,7 +44979,7 @@
         <v>45429.42030092593</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45040,7 +45041,7 @@
         <v>45709.41050925926</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45097,7 +45098,7 @@
         <v>46002.51989583333</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45154,7 +45155,7 @@
         <v>45574.48467592592</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45216,7 +45217,7 @@
         <v>45659.32552083334</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45273,7 +45274,7 @@
         <v>46003.57143518519</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45330,7 +45331,7 @@
         <v>46002.52988425926</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45387,7 +45388,7 @@
         <v>45764.57153935185</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45449,7 +45450,7 @@
         <v>46044.42516203703</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45506,7 +45507,7 @@
         <v>45960</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45568,7 +45569,7 @@
         <v>44426</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45625,7 +45626,7 @@
         <v>45448.67425925926</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45687,7 +45688,7 @@
         <v>45449.44204861111</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45744,7 +45745,7 @@
         <v>46007.34461805555</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45801,7 +45802,7 @@
         <v>46006.67381944445</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45858,7 +45859,7 @@
         <v>46006.37575231482</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45915,7 +45916,7 @@
         <v>45483.54578703704</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45972,7 +45973,7 @@
         <v>45560.36578703704</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46034,7 +46035,7 @@
         <v>46033.71706018518</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46091,7 +46092,7 @@
         <v>45618.6262037037</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46148,7 +46149,7 @@
         <v>45608.61690972222</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46205,7 +46206,7 @@
         <v>45177</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46262,7 +46263,7 @@
         <v>45775.49010416667</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46324,7 +46325,7 @@
         <v>44501</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46386,7 +46387,7 @@
         <v>45551.60734953704</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46443,7 +46444,7 @@
         <v>45007</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46500,7 +46501,7 @@
         <v>46008.60934027778</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46562,7 +46563,7 @@
         <v>46009.59729166667</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46619,7 +46620,7 @@
         <v>46008.63861111111</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46681,7 +46682,7 @@
         <v>46009.45956018518</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46738,7 +46739,7 @@
         <v>44789</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46795,7 +46796,7 @@
         <v>45294</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46852,7 +46853,7 @@
         <v>45462.54217592593</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46909,7 +46910,7 @@
         <v>46010</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46966,7 +46967,7 @@
         <v>46055.33912037037</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47028,7 +47029,7 @@
         <v>45561</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47085,7 +47086,7 @@
         <v>45561</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47142,7 +47143,7 @@
         <v>45618.57092592592</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47199,7 +47200,7 @@
         <v>45428</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47256,7 +47257,7 @@
         <v>46055.30436342592</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47318,7 +47319,7 @@
         <v>46055.32846064815</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47380,7 +47381,7 @@
         <v>45053</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47437,7 +47438,7 @@
         <v>46055.30993055556</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47499,7 +47500,7 @@
         <v>46055.32429398148</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47561,7 +47562,7 @@
         <v>45054</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47623,7 +47624,7 @@
         <v>45236</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47685,7 +47686,7 @@
         <v>46055.34652777778</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47747,7 +47748,7 @@
         <v>45271</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47804,7 +47805,7 @@
         <v>46010.58142361111</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47866,7 +47867,7 @@
         <v>46010.58836805556</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47923,7 +47924,7 @@
         <v>46010</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47980,7 +47981,7 @@
         <v>46013.37320601852</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48042,7 +48043,7 @@
         <v>45205.38287037037</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48099,7 +48100,7 @@
         <v>45448.35927083333</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48156,7 +48157,7 @@
         <v>45460.644375</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48218,7 +48219,7 @@
         <v>46034.70540509259</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48275,7 +48276,7 @@
         <v>45609.36947916666</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48337,7 +48338,7 @@
         <v>44978.66168981481</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48394,7 +48395,7 @@
         <v>44981</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48456,7 +48457,7 @@
         <v>44495</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48513,7 +48514,7 @@
         <v>45215</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48575,7 +48576,7 @@
         <v>46016.67853009259</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48632,7 +48633,7 @@
         <v>44725</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48694,7 +48695,7 @@
         <v>44546.57899305555</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48751,7 +48752,7 @@
         <v>45757</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48808,7 +48809,7 @@
         <v>46059.42837962963</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48865,7 +48866,7 @@
         <v>46016.67640046297</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48922,7 +48923,7 @@
         <v>45636.47783564815</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48979,7 +48980,7 @@
         <v>44908</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49041,7 +49042,7 @@
         <v>46059.42803240741</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49098,7 +49099,7 @@
         <v>46059.48125</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49155,7 +49156,7 @@
         <v>45187</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49217,7 +49218,7 @@
         <v>44907</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49274,7 +49275,7 @@
         <v>44963</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49331,7 +49332,7 @@
         <v>45149</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49393,7 +49394,7 @@
         <v>45737</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49455,7 +49456,7 @@
         <v>44385</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49517,7 +49518,7 @@
         <v>45168</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49574,7 +49575,7 @@
         <v>45624.443125</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49631,7 +49632,7 @@
         <v>46059.24559027778</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49688,7 +49689,7 @@
         <v>46059.4803125</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49745,7 +49746,7 @@
         <v>45335</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49802,7 +49803,7 @@
         <v>46059.42871527778</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49859,7 +49860,7 @@
         <v>45621.4028587963</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49916,7 +49917,7 @@
         <v>45509.60517361111</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49973,7 +49974,7 @@
         <v>44862</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50030,7 +50031,7 @@
         <v>45097</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50087,7 +50088,7 @@
         <v>45614.42175925926</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50144,7 +50145,7 @@
         <v>45510.60420138889</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50206,7 +50207,7 @@
         <v>44795</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50263,7 +50264,7 @@
         <v>45644.6737037037</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50320,7 +50321,7 @@
         <v>45491.57077546296</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50382,7 +50383,7 @@
         <v>45491</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50439,7 +50440,7 @@
         <v>44923</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50496,7 +50497,7 @@
         <v>44923.41336805555</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50553,7 +50554,7 @@
         <v>44923.56913194444</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50610,7 +50611,7 @@
         <v>45177.31422453704</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50667,7 +50668,7 @@
         <v>45631.3825462963</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50729,7 +50730,7 @@
         <v>45202.57804398148</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50786,7 +50787,7 @@
         <v>44938</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50843,7 +50844,7 @@
         <v>44782</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50905,7 +50906,7 @@
         <v>45188</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50962,7 +50963,7 @@
         <v>45188</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51019,7 +51020,7 @@
         <v>44928.44793981482</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51076,7 +51077,7 @@
         <v>45195.49738425926</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51133,7 +51134,7 @@
         <v>45252</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51190,7 +51191,7 @@
         <v>45749.58553240741</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51247,7 +51248,7 @@
         <v>45749.58701388889</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51304,7 +51305,7 @@
         <v>45321</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51366,7 +51367,7 @@
         <v>45670.47900462963</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51423,7 +51424,7 @@
         <v>45267</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51480,7 +51481,7 @@
         <v>45574.48344907408</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51542,7 +51543,7 @@
         <v>45621.65032407407</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51599,7 +51600,7 @@
         <v>45642.43729166667</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51656,7 +51657,7 @@
         <v>44445</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51718,7 +51719,7 @@
         <v>45226</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51780,7 +51781,7 @@
         <v>45483.47208333333</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51837,7 +51838,7 @@
         <v>45642.49408564815</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51894,7 +51895,7 @@
         <v>45503</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51956,7 +51957,7 @@
         <v>45072</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52018,7 +52019,7 @@
         <v>45195.33619212963</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52075,7 +52076,7 @@
         <v>44523.65627314815</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52137,7 +52138,7 @@
         <v>45204.60543981481</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52199,7 +52200,7 @@
         <v>44405</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52261,7 +52262,7 @@
         <v>45106.35313657407</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52323,7 +52324,7 @@
         <v>44347</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52380,7 +52381,7 @@
         <v>45583.65962962963</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52442,7 +52443,7 @@
         <v>45244</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52499,7 +52500,7 @@
         <v>45470.57494212963</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52561,7 +52562,7 @@
         <v>45597.38804398148</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52618,7 +52619,7 @@
         <v>45538</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52675,7 +52676,7 @@
         <v>45246.37835648148</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52732,7 +52733,7 @@
         <v>45645.63621527778</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52789,7 +52790,7 @@
         <v>45775.36009259259</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52846,7 +52847,7 @@
         <v>45720.54408564815</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52903,7 +52904,7 @@
         <v>45483.48921296297</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52960,7 +52961,7 @@
         <v>45756.43478009259</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53022,7 +53023,7 @@
         <v>45687.58771990741</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53079,7 +53080,7 @@
         <v>44455</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53136,7 +53137,7 @@
         <v>45665.3165162037</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53193,7 +53194,7 @@
         <v>45672.39789351852</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53250,7 +53251,7 @@
         <v>45077</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53307,7 +53308,7 @@
         <v>45391</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53364,7 +53365,7 @@
         <v>45231.67228009259</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53421,7 +53422,7 @@
         <v>44837</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53483,7 +53484,7 @@
         <v>45225.51958333333</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53545,7 +53546,7 @@
         <v>44888</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53602,7 +53603,7 @@
         <v>44643.36060185185</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53664,7 +53665,7 @@
         <v>45531.43173611111</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53726,7 +53727,7 @@
         <v>45266</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53783,7 +53784,7 @@
         <v>45769.57763888889</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53840,7 +53841,7 @@
         <v>45355</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53897,7 +53898,7 @@
         <v>45404.60552083333</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53954,7 +53955,7 @@
         <v>45072</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54016,7 +54017,7 @@
         <v>45597.63032407407</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54078,7 +54079,7 @@
         <v>45118.69055555556</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54135,7 +54136,7 @@
         <v>44540</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -54197,7 +54198,7 @@
         <v>45078</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -54259,7 +54260,7 @@
         <v>44335.66215277778</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -54316,7 +54317,7 @@
         <v>45215.49019675926</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54373,7 +54374,7 @@
         <v>45034.64752314815</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54430,7 +54431,7 @@
         <v>45579</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54492,7 +54493,7 @@
         <v>45431</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54554,7 +54555,7 @@
         <v>44356</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54611,7 +54612,7 @@
         <v>44944</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54668,7 +54669,7 @@
         <v>44923</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54725,7 +54726,7 @@
         <v>45525.54740740741</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54787,7 +54788,7 @@
         <v>45639.31525462963</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54844,7 +54845,7 @@
         <v>45456.54840277778</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54906,7 +54907,7 @@
         <v>45247</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54968,7 +54969,7 @@
         <v>44623.561875</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55030,7 +55031,7 @@
         <v>45446.43810185185</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55092,7 +55093,7 @@
         <v>45272.66512731482</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55149,7 +55150,7 @@
         <v>44914.62356481481</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -55206,7 +55207,7 @@
         <v>45201</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -55263,7 +55264,7 @@
         <v>45406.58510416667</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -55320,7 +55321,7 @@
         <v>45430.60167824074</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -55377,7 +55378,7 @@
         <v>45457.59245370371</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55439,7 +55440,7 @@
         <v>45428</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55496,7 +55497,7 @@
         <v>45034.64519675926</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55553,7 +55554,7 @@
         <v>45257</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55610,7 +55611,7 @@
         <v>44916.48710648148</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55667,7 +55668,7 @@
         <v>44589</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55729,7 +55730,7 @@
         <v>45646.38755787037</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55786,7 +55787,7 @@
         <v>45128.54782407408</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55848,7 +55849,7 @@
         <v>45245</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55905,7 +55906,7 @@
         <v>45684.34828703704</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55962,7 +55963,7 @@
         <v>45634.86686342592</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56019,7 +56020,7 @@
         <v>45072</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56076,7 +56077,7 @@
         <v>45238.69153935185</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56133,7 +56134,7 @@
         <v>45476.5606712963</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -56190,7 +56191,7 @@
         <v>45187</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -56247,7 +56248,7 @@
         <v>45561</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -56304,7 +56305,7 @@
         <v>45355</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -56361,7 +56362,7 @@
         <v>45355</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56418,7 +56419,7 @@
         <v>45301.45540509259</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56475,7 +56476,7 @@
         <v>45623.64973379629</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56532,7 +56533,7 @@
         <v>45252.59842592593</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56589,7 +56590,7 @@
         <v>45636</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56646,7 +56647,7 @@
         <v>45461.64128472222</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56703,7 +56704,7 @@
         <v>45467.60181712963</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56765,7 +56766,7 @@
         <v>45303</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56822,7 +56823,7 @@
         <v>45271.73105324074</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56879,7 +56880,7 @@
         <v>45548.73366898148</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56936,7 +56937,7 @@
         <v>44623.41967592593</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56993,7 +56994,7 @@
         <v>45420.37567129629</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57050,7 +57051,7 @@
         <v>45442.65350694444</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57107,7 +57108,7 @@
         <v>45194</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -57164,7 +57165,7 @@
         <v>45204.61171296296</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -57226,7 +57227,7 @@
         <v>45089</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -57288,7 +57289,7 @@
         <v>44791.42771990741</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -57350,7 +57351,7 @@
         <v>45027.3740625</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -57407,7 +57408,7 @@
         <v>45054</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -57464,7 +57465,7 @@
         <v>45071</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57526,7 +57527,7 @@
         <v>45637.70024305556</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57588,7 +57589,7 @@
         <v>45720.54300925926</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57645,7 +57646,7 @@
         <v>45749</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57702,7 +57703,7 @@
         <v>44936.37686342592</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57759,7 +57760,7 @@
         <v>44950</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57816,7 +57817,7 @@
         <v>45634.86971064815</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57873,7 +57874,7 @@
         <v>44286.4887037037</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57930,7 +57931,7 @@
         <v>44725</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57992,7 +57993,7 @@
         <v>45491.40144675926</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -58054,7 +58055,7 @@
         <v>45293.36917824074</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -58111,7 +58112,7 @@
         <v>45607.44731481482</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -58173,7 +58174,7 @@
         <v>45607.4666087963</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -58235,7 +58236,7 @@
         <v>45432.45540509259</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -58292,7 +58293,7 @@
         <v>45428</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -58349,7 +58350,7 @@
         <v>45428</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -58406,7 +58407,7 @@
         <v>45638.31672453704</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -58463,7 +58464,7 @@
         <v>45175.63001157407</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58520,7 +58521,7 @@
         <v>45643.59108796297</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58582,7 +58583,7 @@
         <v>44928.5894675926</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58639,7 +58640,7 @@
         <v>45517.30841435185</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58696,7 +58697,7 @@
         <v>44243</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58753,7 +58754,7 @@
         <v>45226.46472222222</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58810,7 +58811,7 @@
         <v>45053.85569444444</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58867,7 +58868,7 @@
         <v>44364</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58924,7 +58925,7 @@
         <v>45775.36167824074</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58981,7 +58982,7 @@
         <v>45175.31414351852</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -59038,7 +59039,7 @@
         <v>45569.42412037037</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -59100,7 +59101,7 @@
         <v>45726.74026620371</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -59157,7 +59158,7 @@
         <v>45722.33377314815</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -59214,7 +59215,7 @@
         <v>45442.64577546297</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -59271,7 +59272,7 @@
         <v>45041</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -59328,7 +59329,7 @@
         <v>45547.50658564815</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -59385,7 +59386,7 @@
         <v>45301</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -59442,7 +59443,7 @@
         <v>44512</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59504,7 +59505,7 @@
         <v>45119.54222222222</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59561,7 +59562,7 @@
         <v>44957</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59618,7 +59619,7 @@
         <v>45482.68785879629</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59680,7 +59681,7 @@
         <v>45525.67523148148</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59737,7 +59738,7 @@
         <v>45782.34641203703</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59799,7 +59800,7 @@
         <v>45053</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59856,7 +59857,7 @@
         <v>44306</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59913,7 +59914,7 @@
         <v>44313.6144212963</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59970,7 +59971,7 @@
         <v>45455.42601851852</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -60032,7 +60033,7 @@
         <v>44911.35559027778</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -60089,7 +60090,7 @@
         <v>44641</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -60151,7 +60152,7 @@
         <v>45233</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -60208,7 +60209,7 @@
         <v>45399.3711574074</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -60265,7 +60266,7 @@
         <v>45054</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -60327,7 +60328,7 @@
         <v>45789</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -60389,7 +60390,7 @@
         <v>45749</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -60451,7 +60452,7 @@
         <v>45195.67271990741</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -60508,7 +60509,7 @@
         <v>45712.57821759259</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -60565,7 +60566,7 @@
         <v>45488.39434027778</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60627,7 +60628,7 @@
         <v>45793.54432870371</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60684,7 +60685,7 @@
         <v>45036</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60741,7 +60742,7 @@
         <v>45229.35677083334</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60803,7 +60804,7 @@
         <v>45020</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60860,7 +60861,7 @@
         <v>45797.5600462963</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60922,7 +60923,7 @@
         <v>45797.62296296296</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60979,7 +60980,7 @@
         <v>44923</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -61036,7 +61037,7 @@
         <v>45540.58754629629</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -61093,7 +61094,7 @@
         <v>45797.60143518518</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -61155,7 +61156,7 @@
         <v>45796</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -61212,7 +61213,7 @@
         <v>45797.411875</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -61269,7 +61270,7 @@
         <v>45797.56228009259</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -61331,7 +61332,7 @@
         <v>45188.73751157407</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>

--- a/Översikt MALUNG-SÄLEN.xlsx
+++ b/Översikt MALUNG-SÄLEN.xlsx
@@ -575,7 +575,7 @@
         <v>46033.93310185185</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         <v>46033.93108796296</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>44796</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         <v>44313</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -992,7 +992,7 @@
         <v>45785</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>45775</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1195,7 +1195,7 @@
         <v>45917</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>46057.59621527778</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1401,7 +1401,7 @@
         <v>45820</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45469</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>44311</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
         <v>44637</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>45903.56965277778</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45932</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>44610.4637962963</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         <v>45946.39505787037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
         <v>45622</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2264,7 +2264,7 @@
         <v>45695</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>45897.33015046296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2449,7 +2449,7 @@
         <v>45775</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2539,7 +2539,7 @@
         <v>46055.38225694445</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>46033.93405092593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         <v>45099</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>45533</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
         <v>46070.34142361111</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>46029.45614583333</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
         <v>44363</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>45583</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         <v>44742</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3356,7 +3356,7 @@
         <v>45826.70199074074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         <v>45903.76780092593</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3535,7 +3535,7 @@
         <v>44796</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
         <v>45754.58225694444</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45236</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3800,7 +3800,7 @@
         <v>45713</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>44319</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3973,7 +3973,7 @@
         <v>45831.38329861111</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4064,7 +4064,7 @@
         <v>45925.4802199074</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
         <v>45589.67122685185</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>45999.69931712963</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>45714.47484953704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4422,7 +4422,7 @@
         <v>44641</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>44741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4599,7 +4599,7 @@
         <v>45793.44649305556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
         <v>44442</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4779,7 +4779,7 @@
         <v>44631</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4864,7 +4864,7 @@
         <v>44427</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         <v>44464</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         <v>44721</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5124,7 +5124,7 @@
         <v>45119.57550925926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>45805.5721412037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>45824.56101851852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         <v>45895.48694444444</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         <v>45831.57118055555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         <v>45246</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5662,7 +5662,7 @@
         <v>46070.32225694445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>46029.77950231481</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         <v>44319</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         <v>45623.59393518518</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         <v>45713</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         <v>45799.58873842593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>44313.37334490741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44375.67070601852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44512</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>44390.661875</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>44489.67596064815</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>44508</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44537</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>44363</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44325</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44511</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44419</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44712.814375</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>44852.32462962963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>44355</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6999,7 +6999,7 @@
         <v>44435</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
         <v>44326</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7113,7 +7113,7 @@
         <v>44733.64910879629</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>44704.52496527778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7227,7 +7227,7 @@
         <v>44811</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>44756</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>44271.6396875</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>44351</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7470,7 +7470,7 @@
         <v>44887.40295138889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>44696</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>44447.60320601852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44616</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>44503</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>44319.61162037037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>44588.37287037037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>44809.42033564814</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>44602.44553240741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44533.48498842592</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44529.39631944444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44462</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44501</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44328.42916666667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>44613</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>44354.39466435185</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>44342</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>44379</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>44375</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>44540</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>44701.41467592592</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>44445</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>44469</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8801,7 +8801,7 @@
         <v>44363</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8858,7 +8858,7 @@
         <v>44351</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8915,7 +8915,7 @@
         <v>44810</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8977,7 +8977,7 @@
         <v>44447.5934837963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9034,7 +9034,7 @@
         <v>44351.34210648148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>44721.45182870371</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44515</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9215,7 +9215,7 @@
         <v>44557.62385416667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44547.43075231482</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44802</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9386,7 +9386,7 @@
         <v>44433</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44853</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44512</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>44886.44950231481</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44739</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44721</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44743</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9800,7 +9800,7 @@
         <v>44743.62524305555</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9862,7 +9862,7 @@
         <v>44348.55862268519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9924,7 +9924,7 @@
         <v>44616</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9981,7 +9981,7 @@
         <v>44811</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10038,7 +10038,7 @@
         <v>44797.62701388889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10100,7 +10100,7 @@
         <v>44839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10157,7 +10157,7 @@
         <v>44839</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10214,7 +10214,7 @@
         <v>44544.62434027778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10271,7 +10271,7 @@
         <v>44749.54681712963</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10333,7 +10333,7 @@
         <v>44858</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10390,7 +10390,7 @@
         <v>44277</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10447,7 +10447,7 @@
         <v>44326.41503472222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10504,7 +10504,7 @@
         <v>44501</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         <v>44312</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         <v>44600.60770833334</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10680,7 +10680,7 @@
         <v>44826</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10742,7 +10742,7 @@
         <v>44603.5813425926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         <v>44743.61864583333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         <v>44811.59392361111</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         <v>44811</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>45775.49010416667</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         <v>45089</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11104,7 +11104,7 @@
         <v>44795</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
         <v>44725</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11223,7 +11223,7 @@
         <v>45541.58518518518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>45352</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11347,7 +11347,7 @@
         <v>45709.41050925926</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11404,7 +11404,7 @@
         <v>44862</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11461,7 +11461,7 @@
         <v>45531.43173611111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         <v>45335</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11580,7 +11580,7 @@
         <v>45078.36881944445</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
         <v>45252.9509837963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>45448.35927083333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11751,7 +11751,7 @@
         <v>44445</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11813,7 +11813,7 @@
         <v>45391</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>44356.49241898148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11927,7 +11927,7 @@
         <v>45749.58553240741</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11984,7 +11984,7 @@
         <v>45749.58701388889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12041,7 +12041,7 @@
         <v>45749.58858796296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>45321</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
         <v>44347</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12217,7 +12217,7 @@
         <v>45187.57836805555</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44440</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44356</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>45215</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12455,7 +12455,7 @@
         <v>44928.44793981482</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12512,7 +12512,7 @@
         <v>44267.48237268518</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12569,7 +12569,7 @@
         <v>44267</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>45267</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44903</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12740,7 +12740,7 @@
         <v>45720.54300925926</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>45446.43810185185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>45551.60734953704</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>45467.60181712963</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12978,7 +12978,7 @@
         <v>45294</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13035,7 +13035,7 @@
         <v>45271</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13092,7 +13092,7 @@
         <v>45525.54740740741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13154,7 +13154,7 @@
         <v>44523.67086805555</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13211,7 +13211,7 @@
         <v>45503</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>45483.54578703704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44914.62356481481</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>45434.47217592593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>44928.5894675926</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45483.48921296297</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>45510.63439814815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13625,7 +13625,7 @@
         <v>45511.60100694445</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13682,7 +13682,7 @@
         <v>45618.57092592592</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13739,7 +13739,7 @@
         <v>45659.31378472222</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>45644.6737037037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>44896.46638888889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>44897</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13967,7 +13967,7 @@
         <v>44546.57899305555</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14024,7 +14024,7 @@
         <v>45485.44567129629</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         <v>45538</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14143,7 +14143,7 @@
         <v>45195.33619212963</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14200,7 +14200,7 @@
         <v>45540.42568287037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45583.65962962963</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44907</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>45488.5965625</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         <v>45621</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14505,7 +14505,7 @@
         <v>45431</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14567,7 +14567,7 @@
         <v>44910.46317129629</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14624,7 +14624,7 @@
         <v>45804.44298611111</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14686,7 +14686,7 @@
         <v>45456.54840277778</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14748,7 +14748,7 @@
         <v>45491.37751157407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14810,7 +14810,7 @@
         <v>45491.40144675926</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>45804.57848379629</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45747</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>45804.34152777777</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15043,7 +15043,7 @@
         <v>45804.34329861111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15100,7 +15100,7 @@
         <v>45476.5606712963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15157,7 +15157,7 @@
         <v>45883.57032407408</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15214,7 +15214,7 @@
         <v>45805.41782407407</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>45805.42608796297</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15338,7 +15338,7 @@
         <v>45805.47784722222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15400,7 +15400,7 @@
         <v>45405</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>45555.51069444444</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>45805.56788194444</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15586,7 +15586,7 @@
         <v>45525.44305555556</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15648,7 +15648,7 @@
         <v>45807</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15705,7 +15705,7 @@
         <v>44897.58142361111</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15762,7 +15762,7 @@
         <v>45188</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15819,7 +15819,7 @@
         <v>45608</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15876,7 +15876,7 @@
         <v>45807.43049768519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15933,7 +15933,7 @@
         <v>45322.35017361111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15990,7 +15990,7 @@
         <v>45764.57153935185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         <v>45807.42395833333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>45525.44471064815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>45810.67299768519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>45547.50658564815</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44928</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>45817.64203703704</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45561</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45007</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>45225.32844907408</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45890.48954861111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>45636</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16694,7 +16694,7 @@
         <v>45890.48315972222</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>45890.49148148148</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>45687.58771990741</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>45041</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>45443.481875</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>45890.5018287037</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>45890.46034722222</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>45817.71776620371</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>45818.34246527778</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>45762.33412037037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>45740.43369212963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>45818.56835648148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45762.36094907407</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>45818</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>45891.75015046296</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17584,7 +17584,7 @@
         <v>45534.41496527778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>45891.74743055556</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17703,7 +17703,7 @@
         <v>45818.41689814815</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17760,7 +17760,7 @@
         <v>45818.42233796296</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17817,7 +17817,7 @@
         <v>45892.99412037037</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17874,7 +17874,7 @@
         <v>45820.57655092593</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17931,7 +17931,7 @@
         <v>45202.57804398148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17988,7 +17988,7 @@
         <v>45820.41873842593</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18050,7 +18050,7 @@
         <v>45632.64725694444</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18107,7 +18107,7 @@
         <v>45056</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>45449.44204861111</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18221,7 +18221,7 @@
         <v>45891.74215277778</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>45891.74527777778</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         <v>45820.59396990741</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         <v>45749</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         <v>45721.63273148148</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18516,7 +18516,7 @@
         <v>45824.38527777778</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18578,7 +18578,7 @@
         <v>45442.64577546297</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18635,7 +18635,7 @@
         <v>45891.45103009259</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         <v>45575.65107638889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         <v>44916.48710648148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         <v>45824.61040509259</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         <v>45824.64315972223</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18930,7 +18930,7 @@
         <v>45891.44253472222</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>45821.45039351852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19054,7 +19054,7 @@
         <v>45604.41903935185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19111,7 +19111,7 @@
         <v>45894.6009375</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19173,7 +19173,7 @@
         <v>45821.44921296297</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19235,7 +19235,7 @@
         <v>45824.39042824074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19297,7 +19297,7 @@
         <v>45824.56637731481</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19354,7 +19354,7 @@
         <v>45821.4656712963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>45895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         <v>45821.56467592593</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19540,7 +19540,7 @@
         <v>45429.42030092593</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19602,7 +19602,7 @@
         <v>45824.56353009259</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19659,7 +19659,7 @@
         <v>45824.56792824074</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19716,7 +19716,7 @@
         <v>44455</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19773,7 +19773,7 @@
         <v>45826.46914351852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19830,7 +19830,7 @@
         <v>45895.32311342593</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19887,7 +19887,7 @@
         <v>45826.41086805556</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19949,7 +19949,7 @@
         <v>45775.63165509259</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20006,7 +20006,7 @@
         <v>45071</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20068,7 +20068,7 @@
         <v>45898.5934375</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20130,7 +20130,7 @@
         <v>44512</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20192,7 +20192,7 @@
         <v>45679</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20249,7 +20249,7 @@
         <v>45244</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         <v>45898.60506944444</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20363,7 +20363,7 @@
         <v>45540.46436342593</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20425,7 +20425,7 @@
         <v>44923</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20482,7 +20482,7 @@
         <v>44923.41336805555</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20539,7 +20539,7 @@
         <v>45757</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20596,7 +20596,7 @@
         <v>45902.45212962963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20658,7 +20658,7 @@
         <v>45902.47207175926</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20715,7 +20715,7 @@
         <v>45827.34490740741</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20772,7 +20772,7 @@
         <v>45574.48467592592</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>44426</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>45902.61282407407</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>45902.65636574074</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21015,7 +21015,7 @@
         <v>45448.67425925926</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21077,7 +21077,7 @@
         <v>45831.65957175926</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21139,7 +21139,7 @@
         <v>45831.65703703704</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45902.44011574074</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>45901.34545138889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45646.38563657407</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>45646.38755787037</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>45832.37792824074</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21491,7 +21491,7 @@
         <v>45904.4828125</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21548,7 +21548,7 @@
         <v>45904.36177083333</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45831.40608796296</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45832.57787037037</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>45832.38466435186</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21786,7 +21786,7 @@
         <v>44903</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>45831.47927083333</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21905,7 +21905,7 @@
         <v>45831.35322916666</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21962,7 +21962,7 @@
         <v>45007</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45831.66356481481</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         <v>45904.35834490741</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22138,7 +22138,7 @@
         <v>45833</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>45875</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>45908.58384259259</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22319,7 +22319,7 @@
         <v>45833</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22381,7 +22381,7 @@
         <v>45191</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22438,7 +22438,7 @@
         <v>44725</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22500,7 +22500,7 @@
         <v>45226</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>45737</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         <v>45834</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22681,7 +22681,7 @@
         <v>45905.55238425926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22738,7 +22738,7 @@
         <v>45905.56336805555</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22795,7 +22795,7 @@
         <v>45187</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22852,7 +22852,7 @@
         <v>45835.37701388889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22909,7 +22909,7 @@
         <v>44994.37497685185</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22966,7 +22966,7 @@
         <v>45835.48920138889</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23023,7 +23023,7 @@
         <v>45835</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23080,7 +23080,7 @@
         <v>45838</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23137,7 +23137,7 @@
         <v>45835.53376157407</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23194,7 +23194,7 @@
         <v>45481.64619212963</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23256,7 +23256,7 @@
         <v>45838</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23318,7 +23318,7 @@
         <v>45559.65381944444</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23375,7 +23375,7 @@
         <v>45910.54856481482</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23437,7 +23437,7 @@
         <v>45840.46732638889</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23499,7 +23499,7 @@
         <v>45840.59939814815</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23556,7 +23556,7 @@
         <v>45839</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23613,7 +23613,7 @@
         <v>45839.67778935185</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23675,7 +23675,7 @@
         <v>45839.67460648148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23737,7 +23737,7 @@
         <v>45839.68015046296</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23799,7 +23799,7 @@
         <v>44923</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23856,7 +23856,7 @@
         <v>45839.34805555556</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23913,7 +23913,7 @@
         <v>45910.54983796296</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23975,7 +23975,7 @@
         <v>45579</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>45841.67270833333</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24099,7 +24099,7 @@
         <v>45910.55662037037</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24161,7 +24161,7 @@
         <v>45841.66240740741</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24223,7 +24223,7 @@
         <v>45841</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24285,7 +24285,7 @@
         <v>45841</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24342,7 +24342,7 @@
         <v>45842.56287037037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>45580.57578703704</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24456,7 +24456,7 @@
         <v>45909.45203703704</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>45841.67546296296</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>45841</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24637,7 +24637,7 @@
         <v>45618.6262037037</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24694,7 +24694,7 @@
         <v>45636.43981481482</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24751,7 +24751,7 @@
         <v>45574.48344907408</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24813,7 +24813,7 @@
         <v>45841.65665509259</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24875,7 +24875,7 @@
         <v>45357.34954861111</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24932,7 +24932,7 @@
         <v>45912.39274305556</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24994,7 +24994,7 @@
         <v>45845</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25056,7 +25056,7 @@
         <v>45845.71</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25118,7 +25118,7 @@
         <v>45846.54021990741</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25175,7 +25175,7 @@
         <v>45911.65578703704</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25232,7 +25232,7 @@
         <v>45845.70777777778</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25294,7 +25294,7 @@
         <v>45225.51958333333</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25356,7 +25356,7 @@
         <v>45461.64259259259</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25413,7 +25413,7 @@
         <v>45461.64377314815</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25470,7 +25470,7 @@
         <v>45912.64012731481</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25527,7 +25527,7 @@
         <v>44936</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25584,7 +25584,7 @@
         <v>45519.51989583333</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25641,7 +25641,7 @@
         <v>45849.52040509259</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25698,7 +25698,7 @@
         <v>45916.40692129629</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25755,7 +25755,7 @@
         <v>45849.42806712963</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25817,7 +25817,7 @@
         <v>45204.59987268518</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>45915.62581018519</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44981</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25998,7 +25998,7 @@
         <v>45849.50694444445</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26055,7 +26055,7 @@
         <v>45673.42950231482</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26112,7 +26112,7 @@
         <v>45915</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>45916.3175</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45852.51752314815</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26293,7 +26293,7 @@
         <v>45849.4940162037</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26355,7 +26355,7 @@
         <v>45916.40025462963</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26412,7 +26412,7 @@
         <v>45849.49554398148</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>45852.62385416667</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
         <v>45852.64193287037</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26593,7 +26593,7 @@
         <v>45853.61689814815</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>44314.6203587963</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45855.57219907407</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>45855.90872685185</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>45728.43846064815</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>45636</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>45769.57763888889</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45659.57883101852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>45915.5579050926</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45712.54076388889</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27178,7 +27178,7 @@
         <v>44321</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27235,7 +27235,7 @@
         <v>45642.47443287037</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27292,7 +27292,7 @@
         <v>45608</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27349,7 +27349,7 @@
         <v>45917.57190972222</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27411,7 +27411,7 @@
         <v>45918.46780092592</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45713</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>44286.4887037037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45483</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45922.498125</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45638.31672453704</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45694.87980324074</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45867.49938657408</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45566.32714120371</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45503.61224537037</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27991,7 +27991,7 @@
         <v>45684.63780092593</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28048,7 +28048,7 @@
         <v>45034.64519675926</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28105,7 +28105,7 @@
         <v>45034.64752314815</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28162,7 +28162,7 @@
         <v>45629.81228009259</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28219,7 +28219,7 @@
         <v>45919.56688657407</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45919.59399305555</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28333,7 +28333,7 @@
         <v>45919.5646412037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28390,7 +28390,7 @@
         <v>45919.44981481481</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28452,7 +28452,7 @@
         <v>45639.31525462963</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28509,7 +28509,7 @@
         <v>45924.39965277778</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28571,7 +28571,7 @@
         <v>45727.40954861111</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28628,7 +28628,7 @@
         <v>45867.61236111111</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28685,7 +28685,7 @@
         <v>45925.68283564815</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28742,7 +28742,7 @@
         <v>45926.4656712963</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28799,7 +28799,7 @@
         <v>45925.70153935185</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28861,7 +28861,7 @@
         <v>45925.6866087963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28918,7 +28918,7 @@
         <v>45926.32371527778</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28980,7 +28980,7 @@
         <v>45929.62607638889</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29037,7 +29037,7 @@
         <v>45713</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29094,7 +29094,7 @@
         <v>45929.59138888889</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29151,7 +29151,7 @@
         <v>45659.32552083334</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29208,7 +29208,7 @@
         <v>45930.6686574074</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29265,7 +29265,7 @@
         <v>45792</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29322,7 +29322,7 @@
         <v>45930.48217592593</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44462</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>45932.59075231481</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29503,7 +29503,7 @@
         <v>45874</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>44508.40581018518</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29617,7 +29617,7 @@
         <v>45874</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>45931.64465277778</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>45747.36768518519</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>45510.63341435185</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29850,7 +29850,7 @@
         <v>45243.41099537037</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29907,7 +29907,7 @@
         <v>45875</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29964,7 +29964,7 @@
         <v>45875</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30021,7 +30021,7 @@
         <v>45932.62795138889</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30078,7 +30078,7 @@
         <v>45089</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30140,7 +30140,7 @@
         <v>45621.57976851852</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30202,7 +30202,7 @@
         <v>45219</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30259,7 +30259,7 @@
         <v>45880.46700231481</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30316,7 +30316,7 @@
         <v>45880.4719212963</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30373,7 +30373,7 @@
         <v>45880.47787037037</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30430,7 +30430,7 @@
         <v>45720.54729166667</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30487,7 +30487,7 @@
         <v>44978</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30544,7 +30544,7 @@
         <v>45510.60420138889</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30606,7 +30606,7 @@
         <v>45237.58881944444</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30663,7 +30663,7 @@
         <v>44697.46826388889</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>44277.67891203704</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         <v>45931.66475694445</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30834,7 +30834,7 @@
         <v>45763.58377314815</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30896,7 +30896,7 @@
         <v>45931.57971064815</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30958,7 +30958,7 @@
         <v>45932.41336805555</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31020,7 +31020,7 @@
         <v>45933.61208333333</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31082,7 +31082,7 @@
         <v>45168</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31139,7 +31139,7 @@
         <v>45936.61449074074</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31196,7 +31196,7 @@
         <v>44364</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31253,7 +31253,7 @@
         <v>45933.6071875</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31315,7 +31315,7 @@
         <v>45684.34828703704</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31372,7 +31372,7 @@
         <v>44350</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31429,7 +31429,7 @@
         <v>45933.66008101852</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31486,7 +31486,7 @@
         <v>45936.50738425926</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31548,7 +31548,7 @@
         <v>45933.6137962963</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31610,7 +31610,7 @@
         <v>45775.59604166666</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31672,7 +31672,7 @@
         <v>45936</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31729,7 +31729,7 @@
         <v>45936.54474537037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31786,7 +31786,7 @@
         <v>45936.55692129629</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31843,7 +31843,7 @@
         <v>45936.58496527778</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31900,7 +31900,7 @@
         <v>45937.40653935185</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31962,7 +31962,7 @@
         <v>44385</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32024,7 +32024,7 @@
         <v>45937.48424768518</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32086,7 +32086,7 @@
         <v>45937.39556712963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32148,7 +32148,7 @@
         <v>45672.40387731481</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32205,7 +32205,7 @@
         <v>45937.5359375</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32267,7 +32267,7 @@
         <v>45705.66449074074</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32324,7 +32324,7 @@
         <v>45670</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32381,7 +32381,7 @@
         <v>45938.47748842592</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32443,7 +32443,7 @@
         <v>45937.64236111111</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32500,7 +32500,7 @@
         <v>45883.44527777778</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32557,7 +32557,7 @@
         <v>45119.54222222222</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32614,7 +32614,7 @@
         <v>45937.30636574074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32671,7 +32671,7 @@
         <v>45509.60517361111</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32728,7 +32728,7 @@
         <v>45762.3755787037</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32785,7 +32785,7 @@
         <v>45940.40210648148</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>45940.53694444444</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32904,7 +32904,7 @@
         <v>45223.4309375</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32966,7 +32966,7 @@
         <v>45078</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33028,7 +33028,7 @@
         <v>44789</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33085,7 +33085,7 @@
         <v>45027.3740625</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>45940.40857638889</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33199,7 +33199,7 @@
         <v>45749.60295138889</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33256,7 +33256,7 @@
         <v>45940.34780092593</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33318,7 +33318,7 @@
         <v>45939.62938657407</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33380,7 +33380,7 @@
         <v>45244.32862268519</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33437,7 +33437,7 @@
         <v>45940.53023148148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33499,7 +33499,7 @@
         <v>45940.55105324074</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33561,7 +33561,7 @@
         <v>45940.54184027778</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33623,7 +33623,7 @@
         <v>45071</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33685,7 +33685,7 @@
         <v>45930</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33742,7 +33742,7 @@
         <v>45761.44954861111</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33804,7 +33804,7 @@
         <v>45769.56340277778</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33861,7 +33861,7 @@
         <v>45943</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33923,7 +33923,7 @@
         <v>45439.57542824074</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33985,7 +33985,7 @@
         <v>44881</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34042,7 +34042,7 @@
         <v>45931</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34104,7 +34104,7 @@
         <v>44405</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34166,7 +34166,7 @@
         <v>45510.47663194445</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34223,7 +34223,7 @@
         <v>45757.31954861111</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34280,7 +34280,7 @@
         <v>45769.61793981482</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34337,7 +34337,7 @@
         <v>45077</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34394,7 +34394,7 @@
         <v>45037.60547453703</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34451,7 +34451,7 @@
         <v>45614.42175925926</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34508,7 +34508,7 @@
         <v>45947.34503472222</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34565,7 +34565,7 @@
         <v>45950.33710648148</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34622,7 +34622,7 @@
         <v>45951.37177083334</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34679,7 +34679,7 @@
         <v>45637.70024305556</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34741,7 +34741,7 @@
         <v>45952.33078703703</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34798,7 +34798,7 @@
         <v>45951.37347222222</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34855,7 +34855,7 @@
         <v>45952.34672453703</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34912,7 +34912,7 @@
         <v>44791.42771990741</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34974,7 +34974,7 @@
         <v>45301</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35031,7 +35031,7 @@
         <v>45345</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35088,7 +35088,7 @@
         <v>45714</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35145,7 +35145,7 @@
         <v>45636.47783564815</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35202,7 +35202,7 @@
         <v>45757.85554398148</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35259,7 +35259,7 @@
         <v>44837</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35321,7 +35321,7 @@
         <v>45757</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35378,7 +35378,7 @@
         <v>45106.35313657407</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35440,7 +35440,7 @@
         <v>45054</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35502,7 +35502,7 @@
         <v>45953</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>45566.56403935186</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45957</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35683,7 +35683,7 @@
         <v>45957</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35745,7 +35745,7 @@
         <v>45957.43186342593</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35802,7 +35802,7 @@
         <v>45957.43469907407</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35859,7 +35859,7 @@
         <v>45957</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35921,7 +35921,7 @@
         <v>45749</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35978,7 +35978,7 @@
         <v>45128.54782407408</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36040,7 +36040,7 @@
         <v>45491.57077546296</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36102,7 +36102,7 @@
         <v>45491</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36159,7 +36159,7 @@
         <v>45957.44137731481</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36221,7 +36221,7 @@
         <v>45957.39171296296</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36278,7 +36278,7 @@
         <v>44540</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36340,7 +36340,7 @@
         <v>44903.47903935185</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36397,7 +36397,7 @@
         <v>45957</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36459,7 +36459,7 @@
         <v>45957</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36521,7 +36521,7 @@
         <v>45957.37194444444</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36578,7 +36578,7 @@
         <v>45957</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36640,7 +36640,7 @@
         <v>45960.46061342592</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36702,7 +36702,7 @@
         <v>45118.69055555556</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36759,7 +36759,7 @@
         <v>44501</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36821,7 +36821,7 @@
         <v>45756.43478009259</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36883,7 +36883,7 @@
         <v>45960.47034722222</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36945,7 +36945,7 @@
         <v>45194</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37002,7 +37002,7 @@
         <v>45959.42392361111</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37059,7 +37059,7 @@
         <v>45960.47642361111</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37121,7 +37121,7 @@
         <v>45672.38461805556</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37178,7 +37178,7 @@
         <v>45964</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37235,7 +37235,7 @@
         <v>45964.43986111111</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37297,7 +37297,7 @@
         <v>45964.49159722222</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37354,7 +37354,7 @@
         <v>45964.46950231482</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37416,7 +37416,7 @@
         <v>45936.6453125</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37473,7 +37473,7 @@
         <v>45965.64197916666</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37530,7 +37530,7 @@
         <v>45271.73105324074</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37587,7 +37587,7 @@
         <v>45965.90274305556</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37649,7 +37649,7 @@
         <v>45965.85527777778</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37711,7 +37711,7 @@
         <v>45965</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37768,7 +37768,7 @@
         <v>45965.42822916667</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37825,7 +37825,7 @@
         <v>45965.63627314815</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37882,7 +37882,7 @@
         <v>45462.54217592593</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37939,7 +37939,7 @@
         <v>45967.69521990741</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37996,7 +37996,7 @@
         <v>45530.58905092593</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>45967.64751157408</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38110,7 +38110,7 @@
         <v>45404.60552083333</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38167,7 +38167,7 @@
         <v>45569.56986111111</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38229,7 +38229,7 @@
         <v>44944</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38286,7 +38286,7 @@
         <v>45925</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38343,7 +38343,7 @@
         <v>45971.483125</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38405,7 +38405,7 @@
         <v>45971.47046296296</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>45971.55509259259</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38529,7 +38529,7 @@
         <v>45971.82702546296</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38586,7 +38586,7 @@
         <v>45972.68134259259</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38643,7 +38643,7 @@
         <v>45972</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38700,7 +38700,7 @@
         <v>45608.61690972222</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>45539.65193287037</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38819,7 +38819,7 @@
         <v>45974.34721064815</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38881,7 +38881,7 @@
         <v>45973.36538194444</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38943,7 +38943,7 @@
         <v>44938</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39000,7 +39000,7 @@
         <v>45149</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39062,7 +39062,7 @@
         <v>45973.66032407407</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39124,7 +39124,7 @@
         <v>45974.34572916666</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39186,7 +39186,7 @@
         <v>45236.58135416666</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39243,7 +39243,7 @@
         <v>45978.57305555556</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39300,7 +39300,7 @@
         <v>45978.56524305556</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39357,7 +39357,7 @@
         <v>44523.65627314815</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39419,7 +39419,7 @@
         <v>45643.59108796297</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39481,7 +39481,7 @@
         <v>45229.35541666667</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39543,7 +39543,7 @@
         <v>45979.40672453704</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39600,7 +39600,7 @@
         <v>45980.43390046297</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39657,7 +39657,7 @@
         <v>45428.64856481482</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39714,7 +39714,7 @@
         <v>45980</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39771,7 +39771,7 @@
         <v>45614</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39828,7 +39828,7 @@
         <v>45079</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39885,7 +39885,7 @@
         <v>45979.47358796297</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39947,7 +39947,7 @@
         <v>45982.64049768518</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40004,7 +40004,7 @@
         <v>45982.44721064815</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         <v>45981.47236111111</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40123,7 +40123,7 @@
         <v>45470.57494212963</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40185,7 +40185,7 @@
         <v>45153.35951388889</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45986.62393518518</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40299,7 +40299,7 @@
         <v>45604.42353009259</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40356,7 +40356,7 @@
         <v>44599</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40413,7 +40413,7 @@
         <v>45631.595625</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40470,7 +40470,7 @@
         <v>45566</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>45355</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40584,7 +40584,7 @@
         <v>45355</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40641,7 +40641,7 @@
         <v>45548.38673611111</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40698,7 +40698,7 @@
         <v>45986</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40755,7 +40755,7 @@
         <v>45621.4028587963</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40812,7 +40812,7 @@
         <v>45517.30841435185</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40869,7 +40869,7 @@
         <v>45560.36578703704</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40931,7 +40931,7 @@
         <v>45583.66347222222</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40993,7 +40993,7 @@
         <v>45938</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41055,7 +41055,7 @@
         <v>45987</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41112,7 +41112,7 @@
         <v>45988.41490740741</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41169,7 +41169,7 @@
         <v>45204.61577546296</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41231,7 +41231,7 @@
         <v>45483.47208333333</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41288,7 +41288,7 @@
         <v>45987</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41345,7 +41345,7 @@
         <v>45987.38755787037</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41402,7 +41402,7 @@
         <v>45036.58005787037</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41459,7 +41459,7 @@
         <v>45992.33203703703</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41516,7 +41516,7 @@
         <v>45631.3825462963</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41578,7 +41578,7 @@
         <v>45992.60519675926</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41635,7 +41635,7 @@
         <v>45989.44923611111</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41697,7 +41697,7 @@
         <v>45541.58900462963</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41759,7 +41759,7 @@
         <v>45989.45113425926</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41821,7 +41821,7 @@
         <v>45260</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41878,7 +41878,7 @@
         <v>45054</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41935,7 +41935,7 @@
         <v>45993</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41997,7 +41997,7 @@
         <v>45993.68112268519</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42054,7 +42054,7 @@
         <v>45993.37241898148</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42116,7 +42116,7 @@
         <v>45078.62092592593</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42178,7 +42178,7 @@
         <v>45634.8659375</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42235,7 +42235,7 @@
         <v>45634.87394675926</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42292,7 +42292,7 @@
         <v>45713</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42349,7 +42349,7 @@
         <v>45645.63621527778</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42406,7 +42406,7 @@
         <v>45995.44162037037</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42468,7 +42468,7 @@
         <v>46000.61453703704</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42525,7 +42525,7 @@
         <v>45097</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42582,7 +42582,7 @@
         <v>45642.43729166667</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42639,7 +42639,7 @@
         <v>45597.38252314815</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42696,7 +42696,7 @@
         <v>45999.64630787037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42753,7 +42753,7 @@
         <v>45072</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42815,7 +42815,7 @@
         <v>45670</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42872,7 +42872,7 @@
         <v>45203.31983796296</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42929,7 +42929,7 @@
         <v>45121.52883101852</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42991,7 +42991,7 @@
         <v>45677.43952546296</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43048,7 +43048,7 @@
         <v>45181.37539351852</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43110,7 +43110,7 @@
         <v>45999.64569444444</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43167,7 +43167,7 @@
         <v>45072</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43224,7 +43224,7 @@
         <v>45197.29984953703</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43281,7 +43281,7 @@
         <v>46001.57108796296</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43338,7 +43338,7 @@
         <v>45201</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43395,7 +43395,7 @@
         <v>45205.38287037037</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43452,7 +43452,7 @@
         <v>45624.443125</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43509,7 +43509,7 @@
         <v>45714.47013888889</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43566,7 +43566,7 @@
         <v>45225.29825231482</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43623,7 +43623,7 @@
         <v>46002.52988425926</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43680,7 +43680,7 @@
         <v>45226.57532407407</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43737,7 +43737,7 @@
         <v>46001.60390046296</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43799,7 +43799,7 @@
         <v>44349.32005787037</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43856,7 +43856,7 @@
         <v>45236</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43918,7 +43918,7 @@
         <v>45960</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43980,7 +43980,7 @@
         <v>46044.42516203703</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         <v>45093.44674768519</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>46002.51989583333</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44151,7 +44151,7 @@
         <v>46043.36582175926</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44213,7 +44213,7 @@
         <v>44804.47018518519</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44270,7 +44270,7 @@
         <v>46044.67987268518</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44327,7 +44327,7 @@
         <v>45204.59157407407</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44389,7 +44389,7 @@
         <v>45231</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44446,7 +44446,7 @@
         <v>45665.32039351852</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44503,7 +44503,7 @@
         <v>45762.46747685185</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44560,7 +44560,7 @@
         <v>45428</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44617,7 +44617,7 @@
         <v>45195.49738425926</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44674,7 +44674,7 @@
         <v>45629.8154050926</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         <v>45510.59875</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44793,7 +44793,7 @@
         <v>45775.36009259259</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44850,7 +44850,7 @@
         <v>45775.36167824074</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44907,7 +44907,7 @@
         <v>45198</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44969,7 +44969,7 @@
         <v>46006.37575231482</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45026,7 +45026,7 @@
         <v>46006.67381944445</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45083,7 +45083,7 @@
         <v>45211</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45140,7 +45140,7 @@
         <v>46003.38805555556</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45202,7 +45202,7 @@
         <v>44677.59837962963</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45264,7 +45264,7 @@
         <v>46003.51332175926</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45321,7 +45321,7 @@
         <v>46003.57143518519</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45378,7 +45378,7 @@
         <v>45621.65032407407</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45435,7 +45435,7 @@
         <v>46008.63861111111</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45497,7 +45497,7 @@
         <v>45622.61188657407</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45559,7 +45559,7 @@
         <v>45642.34791666667</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45616,7 +45616,7 @@
         <v>45642.4716087963</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45673,7 +45673,7 @@
         <v>45642.49408564815</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45730,7 +45730,7 @@
         <v>45615.64232638889</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45787,7 +45787,7 @@
         <v>46007.34461805555</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45844,7 +45844,7 @@
         <v>46008.60934027778</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45906,7 +45906,7 @@
         <v>45191</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45963,7 +45963,7 @@
         <v>45177.31422453704</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46020,7 +46020,7 @@
         <v>46010.58142361111</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46082,7 +46082,7 @@
         <v>45246.37835648148</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46139,7 +46139,7 @@
         <v>45245</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46196,7 +46196,7 @@
         <v>46010</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46253,7 +46253,7 @@
         <v>46009.45956018518</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46310,7 +46310,7 @@
         <v>46009.59729166667</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46367,7 +46367,7 @@
         <v>46010.58836805556</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46424,7 +46424,7 @@
         <v>45561</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46481,7 +46481,7 @@
         <v>45561</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46538,7 +46538,7 @@
         <v>46010</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46595,7 +46595,7 @@
         <v>46013.37320601852</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46657,7 +46657,7 @@
         <v>46055.32846064815</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46719,7 +46719,7 @@
         <v>46055.30436342592</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46781,7 +46781,7 @@
         <v>46055.30993055556</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46843,7 +46843,7 @@
         <v>46055.33912037037</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46905,7 +46905,7 @@
         <v>45175.63001157407</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46962,7 +46962,7 @@
         <v>45245</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47019,7 +47019,7 @@
         <v>46055.34652777778</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47081,7 +47081,7 @@
         <v>45188</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47138,7 +47138,7 @@
         <v>45188</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47195,7 +47195,7 @@
         <v>46055.32429398148</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47257,7 +47257,7 @@
         <v>45175.31414351852</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47314,7 +47314,7 @@
         <v>45225.46814814815</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47371,7 +47371,7 @@
         <v>45247</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47433,7 +47433,7 @@
         <v>46016.67853009259</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47490,7 +47490,7 @@
         <v>44405</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47552,7 +47552,7 @@
         <v>45187</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47614,7 +47614,7 @@
         <v>45252</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47671,7 +47671,7 @@
         <v>44739</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47728,7 +47728,7 @@
         <v>46016.67640046297</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47785,7 +47785,7 @@
         <v>45645.67467592593</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47842,7 +47842,7 @@
         <v>45257</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47899,7 +47899,7 @@
         <v>46059.42803240741</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47956,7 +47956,7 @@
         <v>46059.48125</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48013,7 +48013,7 @@
         <v>44782</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48075,7 +48075,7 @@
         <v>46059.24559027778</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48132,7 +48132,7 @@
         <v>45727</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48189,7 +48189,7 @@
         <v>45252.59219907408</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48246,7 +48246,7 @@
         <v>45713.6208912037</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48303,7 +48303,7 @@
         <v>46059.42871527778</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48360,7 +48360,7 @@
         <v>46059.4803125</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48417,7 +48417,7 @@
         <v>46059.42837962963</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48474,7 +48474,7 @@
         <v>45322.36032407408</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48531,7 +48531,7 @@
         <v>44886.43664351852</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48588,7 +48588,7 @@
         <v>44881</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48645,7 +48645,7 @@
         <v>45188.53271990741</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48702,7 +48702,7 @@
         <v>45237</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48759,7 +48759,7 @@
         <v>45237</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48816,7 +48816,7 @@
         <v>46064.63084490741</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48873,7 +48873,7 @@
         <v>45257.64123842592</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48930,7 +48930,7 @@
         <v>46021</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48987,7 +48987,7 @@
         <v>46021.71892361111</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49049,7 +49049,7 @@
         <v>46064.66016203703</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49106,7 +49106,7 @@
         <v>46066.59405092592</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49163,7 +49163,7 @@
         <v>45769.57196759259</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49225,7 +49225,7 @@
         <v>45355</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49282,7 +49282,7 @@
         <v>44908</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49344,7 +49344,7 @@
         <v>46024.45844907407</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49401,7 +49401,7 @@
         <v>44950</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49458,7 +49458,7 @@
         <v>44950</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49515,7 +49515,7 @@
         <v>45272.66512731482</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49572,7 +49572,7 @@
         <v>44936.37686342592</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49629,7 +49629,7 @@
         <v>45355</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49691,7 +49691,7 @@
         <v>46070.33037037037</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49748,7 +49748,7 @@
         <v>46029.45927083334</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49810,7 +49810,7 @@
         <v>46030.42782407408</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49867,7 +49867,7 @@
         <v>45266</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49924,7 +49924,7 @@
         <v>46029</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49981,7 +49981,7 @@
         <v>45541.58631944445</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50043,7 +50043,7 @@
         <v>46029.45503472222</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50105,7 +50105,7 @@
         <v>44495</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50162,7 +50162,7 @@
         <v>46031</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50219,7 +50219,7 @@
         <v>45301</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50276,7 +50276,7 @@
         <v>46031.59383101852</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50333,7 +50333,7 @@
         <v>46073.37358796296</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50395,7 +50395,7 @@
         <v>46073.32910879629</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50457,7 +50457,7 @@
         <v>45677.45149305555</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50514,7 +50514,7 @@
         <v>46034.65012731482</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50571,7 +50571,7 @@
         <v>45430.59172453704</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50628,7 +50628,7 @@
         <v>46034.60967592592</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         <v>46034.58243055556</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50742,7 +50742,7 @@
         <v>46034.66954861111</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50799,7 +50799,7 @@
         <v>45303</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50856,7 +50856,7 @@
         <v>46073.45501157407</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50913,7 +50913,7 @@
         <v>44319.62157407407</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50970,7 +50970,7 @@
         <v>44938</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51027,7 +51027,7 @@
         <v>46034.58451388889</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51084,7 +51084,7 @@
         <v>46033.71706018518</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51141,7 +51141,7 @@
         <v>45567.31128472222</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51198,7 +51198,7 @@
         <v>45547.6940625</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51255,7 +51255,7 @@
         <v>46031</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51312,7 +51312,7 @@
         <v>45053</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51369,7 +51369,7 @@
         <v>45053.85569444444</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51426,7 +51426,7 @@
         <v>46034.64164351852</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -51483,7 +51483,7 @@
         <v>46031</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -51540,7 +51540,7 @@
         <v>46073.40454861111</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -51597,7 +51597,7 @@
         <v>45634.86686342592</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -51654,7 +51654,7 @@
         <v>44860</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -51711,7 +51711,7 @@
         <v>44900</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -51773,7 +51773,7 @@
         <v>45623.64973379629</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -51830,7 +51830,7 @@
         <v>46034.70540509259</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -51887,7 +51887,7 @@
         <v>45406.58510416667</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -51944,7 +51944,7 @@
         <v>45453.59372685185</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52001,7 +52001,7 @@
         <v>44897.57861111111</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52058,7 +52058,7 @@
         <v>46035.55181712963</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52120,7 +52120,7 @@
         <v>46036.59063657407</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52177,7 +52177,7 @@
         <v>46036.57100694445</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52234,7 +52234,7 @@
         <v>46036.4109837963</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52291,7 +52291,7 @@
         <v>46036.58809027778</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52348,7 +52348,7 @@
         <v>44740.59753472222</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52410,7 +52410,7 @@
         <v>44589</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -52472,7 +52472,7 @@
         <v>46035.67122685185</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -52534,7 +52534,7 @@
         <v>46036.3975</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -52591,7 +52591,7 @@
         <v>46036.39993055556</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -52648,7 +52648,7 @@
         <v>46036.39175925926</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -52705,7 +52705,7 @@
         <v>44957</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -52762,7 +52762,7 @@
         <v>44832.32884259259</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -52819,7 +52819,7 @@
         <v>46036.57251157407</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -52876,7 +52876,7 @@
         <v>46078.63026620371</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -52933,7 +52933,7 @@
         <v>44741.50043981482</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -52995,7 +52995,7 @@
         <v>45420.37567129629</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53052,7 +53052,7 @@
         <v>44979</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53109,7 +53109,7 @@
         <v>46080.38799768518</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53166,7 +53166,7 @@
         <v>45607.44731481482</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53228,7 +53228,7 @@
         <v>45607.4666087963</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53290,7 +53290,7 @@
         <v>44637</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53352,7 +53352,7 @@
         <v>44623.561875</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53414,7 +53414,7 @@
         <v>45162.61471064815</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -53476,7 +53476,7 @@
         <v>44946</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -53533,7 +53533,7 @@
         <v>44937</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -53590,7 +53590,7 @@
         <v>45674.473125</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -53647,7 +53647,7 @@
         <v>45450</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -53704,7 +53704,7 @@
         <v>45204.60543981481</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -53766,7 +53766,7 @@
         <v>45460.644375</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -53828,7 +53828,7 @@
         <v>44623.41967592593</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -53885,7 +53885,7 @@
         <v>45428</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -53942,7 +53942,7 @@
         <v>45226.46472222222</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -53999,7 +53999,7 @@
         <v>45041.45144675926</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54061,7 +54061,7 @@
         <v>45477.46177083333</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54118,7 +54118,7 @@
         <v>45106.39289351852</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -54175,7 +54175,7 @@
         <v>45569.42412037037</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -54237,7 +54237,7 @@
         <v>44511.67334490741</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -54294,7 +54294,7 @@
         <v>45614.35696759259</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54351,7 +54351,7 @@
         <v>45548.32189814815</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54408,7 +54408,7 @@
         <v>44923.56913194444</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -54465,7 +54465,7 @@
         <v>44963</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -54522,7 +54522,7 @@
         <v>45007.58724537037</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -54579,7 +54579,7 @@
         <v>45592.73224537037</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -54636,7 +54636,7 @@
         <v>45597.63032407407</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -54698,7 +54698,7 @@
         <v>44643.36060185185</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -54760,7 +54760,7 @@
         <v>44978.66168981481</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -54817,7 +54817,7 @@
         <v>44911.36712962963</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -54874,7 +54874,7 @@
         <v>44445.55202546297</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -54931,7 +54931,7 @@
         <v>45231.67228009259</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -54988,7 +54988,7 @@
         <v>45336</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55045,7 +55045,7 @@
         <v>45428</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55102,7 +55102,7 @@
         <v>45538.53628472222</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -55159,7 +55159,7 @@
         <v>45597.38804398148</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -55216,7 +55216,7 @@
         <v>44938.47299768519</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -55273,7 +55273,7 @@
         <v>44501</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -55335,7 +55335,7 @@
         <v>45162.60524305556</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55392,7 +55392,7 @@
         <v>45600.58152777778</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55454,7 +55454,7 @@
         <v>45072</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -55516,7 +55516,7 @@
         <v>45293.36917824074</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -55573,7 +55573,7 @@
         <v>44894.48662037037</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -55635,7 +55635,7 @@
         <v>45761.66739583333</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -55697,7 +55697,7 @@
         <v>45762.47291666667</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -55754,7 +55754,7 @@
         <v>45202</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -55811,7 +55811,7 @@
         <v>44335.66215277778</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -55868,7 +55868,7 @@
         <v>45665.31773148148</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -55925,7 +55925,7 @@
         <v>45665.31870370371</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -55982,7 +55982,7 @@
         <v>45301.45540509259</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56039,7 +56039,7 @@
         <v>45224.64626157407</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56101,7 +56101,7 @@
         <v>45574.48221064815</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -56163,7 +56163,7 @@
         <v>45644.4359375</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -56220,7 +56220,7 @@
         <v>45670.47900462963</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -56277,7 +56277,7 @@
         <v>45541.5880787037</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -56339,7 +56339,7 @@
         <v>45460.34475694445</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56401,7 +56401,7 @@
         <v>45677.44365740741</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56458,7 +56458,7 @@
         <v>44881.70018518518</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -56515,7 +56515,7 @@
         <v>45442.65350694444</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -56572,7 +56572,7 @@
         <v>45257</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -56634,7 +56634,7 @@
         <v>45665.3165162037</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -56691,7 +56691,7 @@
         <v>45252.59842592593</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -56748,7 +56748,7 @@
         <v>45238</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -56805,7 +56805,7 @@
         <v>45560.548125</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -56862,7 +56862,7 @@
         <v>45152</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -56924,7 +56924,7 @@
         <v>45646.30297453704</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -56981,7 +56981,7 @@
         <v>45090</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57038,7 +57038,7 @@
         <v>45072</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57100,7 +57100,7 @@
         <v>45628.66434027778</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -57157,7 +57157,7 @@
         <v>44515</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -57219,7 +57219,7 @@
         <v>45604.40155092593</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -57276,7 +57276,7 @@
         <v>44321</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -57333,7 +57333,7 @@
         <v>45062.64018518518</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -57390,7 +57390,7 @@
         <v>45548.73366898148</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -57447,7 +57447,7 @@
         <v>45461.64128472222</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -57504,7 +57504,7 @@
         <v>44931.36048611111</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -57561,7 +57561,7 @@
         <v>45339</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -57618,7 +57618,7 @@
         <v>45407.62357638889</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -57675,7 +57675,7 @@
         <v>44888</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -57732,7 +57732,7 @@
         <v>45163.47275462963</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -57794,7 +57794,7 @@
         <v>45643.31895833334</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -57851,7 +57851,7 @@
         <v>45238.69153935185</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -57908,7 +57908,7 @@
         <v>45430.60167824074</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -57965,7 +57965,7 @@
         <v>45177</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -58022,7 +58022,7 @@
         <v>45470.5739699074</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -58084,7 +58084,7 @@
         <v>45439</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -58146,7 +58146,7 @@
         <v>45609.36947916666</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -58208,7 +58208,7 @@
         <v>45692.58461805555</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -58265,7 +58265,7 @@
         <v>45204.61171296296</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -58327,7 +58327,7 @@
         <v>45457.59245370371</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -58389,7 +58389,7 @@
         <v>45720.54408564815</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -58446,7 +58446,7 @@
         <v>45314.65690972222</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -58503,7 +58503,7 @@
         <v>45624</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -58560,7 +58560,7 @@
         <v>45624</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -58617,7 +58617,7 @@
         <v>45294.35001157408</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -58674,7 +58674,7 @@
         <v>45634.86971064815</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -58731,7 +58731,7 @@
         <v>45722.33377314815</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -58788,7 +58788,7 @@
         <v>45672.39789351852</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -58845,7 +58845,7 @@
         <v>44867</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -58902,7 +58902,7 @@
         <v>45432.45540509259</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -58959,7 +58959,7 @@
         <v>45428</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -59016,7 +59016,7 @@
         <v>45428</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -59073,7 +59073,7 @@
         <v>45726.74026620371</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -59130,7 +59130,7 @@
         <v>45654.49903935185</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -59187,7 +59187,7 @@
         <v>45215.49019675926</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -59244,7 +59244,7 @@
         <v>45782.34641203703</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -59306,7 +59306,7 @@
         <v>44313.6144212963</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -59363,7 +59363,7 @@
         <v>45525.67523148148</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -59420,7 +59420,7 @@
         <v>45482.68785879629</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -59482,7 +59482,7 @@
         <v>45053</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -59539,7 +59539,7 @@
         <v>45233</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -59596,7 +59596,7 @@
         <v>44306</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -59653,7 +59653,7 @@
         <v>45455.42601851852</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -59715,7 +59715,7 @@
         <v>44641</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -59777,7 +59777,7 @@
         <v>44911.35559027778</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -59834,7 +59834,7 @@
         <v>45399.3711574074</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -59891,7 +59891,7 @@
         <v>45054</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -59953,7 +59953,7 @@
         <v>45789</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -60015,7 +60015,7 @@
         <v>45749</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -60077,7 +60077,7 @@
         <v>45195.67271990741</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -60134,7 +60134,7 @@
         <v>45796</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -60191,7 +60191,7 @@
         <v>45712.57821759259</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -60248,7 +60248,7 @@
         <v>45188.73751157407</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -60305,7 +60305,7 @@
         <v>45229.35677083334</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -60367,7 +60367,7 @@
         <v>45020</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -60424,7 +60424,7 @@
         <v>45540.58754629629</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -60481,7 +60481,7 @@
         <v>45793.54432870371</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -60538,7 +60538,7 @@
         <v>45488.39434027778</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -60600,7 +60600,7 @@
         <v>45036</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -60657,7 +60657,7 @@
         <v>44923</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -60714,7 +60714,7 @@
         <v>45798.58796296296</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -60771,7 +60771,7 @@
         <v>45797.56228009259</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -60833,7 +60833,7 @@
         <v>45797.62296296296</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -60890,7 +60890,7 @@
         <v>45797.411875</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -60947,7 +60947,7 @@
         <v>45797.60143518518</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -61009,7 +61009,7 @@
         <v>45797.5600462963</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -61071,7 +61071,7 @@
         <v>45799.58537037037</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -61128,7 +61128,7 @@
         <v>45800.41166666667</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -61190,7 +61190,7 @@
         <v>45673.44138888889</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -61247,7 +61247,7 @@
         <v>45800.41847222222</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -61309,7 +61309,7 @@
         <v>45804.35850694445</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -61366,7 +61366,7 @@
         <v>45804.5756712963</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -61428,7 +61428,7 @@
         <v>45747</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -61490,7 +61490,7 @@
         <v>45804.63151620371</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -61547,7 +61547,7 @@
         <v>45804.33391203704</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -61604,7 +61604,7 @@
         <v>45804.47033564815</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -61666,7 +61666,7 @@
         <v>45804.33924768519</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         <v>45804.53506944444</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
